--- a/Homework & score/课外作业成绩.xlsx
+++ b/Homework & score/课外作业成绩.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="561">
   <si>
     <t>77</t>
   </si>
@@ -1063,61 +1063,828 @@
     <t>18020022051</t>
   </si>
   <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>18020024052</t>
+  </si>
+  <si>
+    <t>张渊</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>18020024056</t>
+  </si>
+  <si>
+    <t>小组编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩宇杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹茹煜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾于锐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马嘉龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李新哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周业洪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高家齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答非所问！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补交word发我邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐润生</t>
+  </si>
+  <si>
+    <t>武文浩</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>张智强</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>18020024052</t>
-  </si>
-  <si>
-    <t>张渊</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>18020024056</t>
-  </si>
-  <si>
-    <t>小组编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小组成员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单次成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩宇杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹茹煜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>18020022040</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>18020022038</t>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糊弄我？！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未见附件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1125,447 +1892,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>贾于锐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马嘉龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>87</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>87</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>82</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李新哲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周业洪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>82</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>82</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抄袭吴瑞瑞小组作业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>98</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>98</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>91</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>84</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>84</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抄袭李龙泽小组作业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>96</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>96</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高家齐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抄袭洪雯浩作业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未交word文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抄袭唐琪林小组作业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报告内容不全</t>
+    <t>过分！不接受补交！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补交word发我邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台粘贴但未交word文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未见附件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1687,8 +2026,8 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color rgb="FFC00000"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1978,9 +2317,6 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2041,6 +2377,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2361,56 +2700,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E117" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="J129" sqref="J129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="40"/>
+    <col min="2" max="2" width="9" style="39"/>
     <col min="3" max="3" width="14.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="8" width="15.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.125" style="2" customWidth="1"/>
     <col min="10" max="10" width="20.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>353</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>354</v>
       </c>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
       <c r="E1" s="46" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F1" s="47"/>
       <c r="G1" s="47"/>
       <c r="H1" s="48"/>
       <c r="I1" s="45" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J1" s="55" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>359</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>360</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="50"/>
@@ -2420,10 +2763,10 @@
       <c r="J2" s="56"/>
     </row>
     <row r="3" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -2435,21 +2778,23 @@
       <c r="E3" s="17">
         <v>90</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>372</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>411</v>
-      </c>
-      <c r="H3" s="18"/>
+      <c r="F3" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>458</v>
+      </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25">
+      <c r="A4" s="24">
         <v>1</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -2461,21 +2806,23 @@
       <c r="E4" s="7">
         <v>90</v>
       </c>
-      <c r="F4" s="42" t="s">
-        <v>373</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>412</v>
-      </c>
-      <c r="H4" s="8"/>
+      <c r="F4" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>406</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>459</v>
+      </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25">
+      <c r="A5" s="24">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -2487,49 +2834,53 @@
       <c r="E5" s="7">
         <v>90</v>
       </c>
-      <c r="F5" s="42" t="s">
-        <v>374</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="H5" s="8"/>
+      <c r="F5" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>460</v>
+      </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E6" s="11">
-        <v>70</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>388</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>448</v>
-      </c>
-      <c r="H6" s="12"/>
+        <v>85</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>547</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>525</v>
+      </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12" t="s">
-        <v>474</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26">
+      <c r="A7" s="25">
         <v>2</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -2539,25 +2890,25 @@
         <v>11</v>
       </c>
       <c r="E7" s="11">
-        <v>70</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>389</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>448</v>
-      </c>
-      <c r="H7" s="12"/>
+        <v>85</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>525</v>
+      </c>
       <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
-        <v>474</v>
-      </c>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26">
+      <c r="A8" s="25">
         <v>2</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -2567,25 +2918,25 @@
         <v>16</v>
       </c>
       <c r="E8" s="11">
-        <v>70</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>390</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>448</v>
-      </c>
-      <c r="H8" s="12"/>
+        <v>85</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>546</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>525</v>
+      </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="12" t="s">
-        <v>474</v>
-      </c>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25">
+      <c r="A9" s="24">
         <v>3</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -2597,21 +2948,23 @@
       <c r="E9" s="7">
         <v>85</v>
       </c>
-      <c r="F9" s="42" t="s">
-        <v>382</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>432</v>
-      </c>
-      <c r="H9" s="8"/>
+      <c r="F9" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>498</v>
+      </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25">
+      <c r="A10" s="24">
         <v>3</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="28" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -2623,21 +2976,23 @@
       <c r="E10" s="7">
         <v>85</v>
       </c>
-      <c r="F10" s="42" t="s">
-        <v>400</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>432</v>
-      </c>
-      <c r="H10" s="8"/>
+      <c r="F10" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>498</v>
+      </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25">
+      <c r="A11" s="24">
         <v>3</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -2649,47 +3004,51 @@
       <c r="E11" s="7">
         <v>85</v>
       </c>
-      <c r="F11" s="42" t="s">
-        <v>384</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>433</v>
-      </c>
-      <c r="H11" s="8"/>
+      <c r="F11" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>427</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>499</v>
+      </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26">
+      <c r="A12" s="25">
         <v>4</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E12" s="11">
         <v>80</v>
       </c>
-      <c r="F12" s="43" t="s">
-        <v>379</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>430</v>
-      </c>
-      <c r="H12" s="12"/>
+      <c r="F12" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>424</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>479</v>
+      </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26">
+      <c r="A13" s="25">
         <v>4</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="30" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -2701,21 +3060,23 @@
       <c r="E13" s="11">
         <v>80</v>
       </c>
-      <c r="F13" s="43" t="s">
-        <v>379</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>431</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="F13" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>425</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>480</v>
+      </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26">
+      <c r="A14" s="25">
         <v>4</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="30" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -2727,21 +3088,23 @@
       <c r="E14" s="11">
         <v>80</v>
       </c>
-      <c r="F14" s="43" t="s">
-        <v>379</v>
-      </c>
-      <c r="G14" s="43" t="s">
-        <v>431</v>
-      </c>
-      <c r="H14" s="12"/>
+      <c r="F14" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>425</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>481</v>
+      </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25">
+      <c r="A15" s="24">
         <v>5</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="20" t="s">
@@ -2753,23 +3116,25 @@
       <c r="E15" s="7">
         <v>82</v>
       </c>
-      <c r="F15" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="G15" s="44" t="s">
-        <v>437</v>
-      </c>
-      <c r="H15" s="8"/>
+      <c r="F15" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>542</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>461</v>
+      </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8" t="s">
-        <v>466</v>
+        <v>543</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25">
+      <c r="A16" s="24">
         <v>5</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -2781,23 +3146,23 @@
       <c r="E16" s="7">
         <v>82</v>
       </c>
-      <c r="F16" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="G16" s="44" t="s">
-        <v>438</v>
-      </c>
-      <c r="H16" s="8"/>
+      <c r="F16" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>461</v>
+      </c>
       <c r="I16" s="8"/>
-      <c r="J16" s="8" t="s">
-        <v>466</v>
-      </c>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25">
+      <c r="A17" s="24">
         <v>5</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -2809,23 +3174,23 @@
       <c r="E17" s="7">
         <v>82</v>
       </c>
-      <c r="F17" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="G17" s="44" t="s">
-        <v>465</v>
-      </c>
-      <c r="H17" s="8"/>
+      <c r="F17" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>544</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>461</v>
+      </c>
       <c r="I17" s="8"/>
-      <c r="J17" s="8" t="s">
-        <v>466</v>
-      </c>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26">
+      <c r="A18" s="25">
         <v>6</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="34">
         <v>44</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -2837,21 +3202,23 @@
       <c r="E18" s="11">
         <v>95</v>
       </c>
-      <c r="F18" s="43" t="s">
-        <v>405</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>454</v>
-      </c>
-      <c r="H18" s="12"/>
+      <c r="F18" s="42" t="s">
+        <v>401</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>444</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>516</v>
+      </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26">
+      <c r="A19" s="25">
         <v>6</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="30" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -2863,21 +3230,23 @@
       <c r="E19" s="11">
         <v>95</v>
       </c>
-      <c r="F19" s="43" t="s">
-        <v>398</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>409</v>
-      </c>
-      <c r="H19" s="12"/>
+      <c r="F19" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>515</v>
+      </c>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26">
+      <c r="A20" s="25">
         <v>6</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="30" t="s">
         <v>55</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -2889,21 +3258,23 @@
       <c r="E20" s="11">
         <v>95</v>
       </c>
-      <c r="F20" s="43" t="s">
-        <v>398</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>460</v>
-      </c>
-      <c r="H20" s="12"/>
+      <c r="F20" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>447</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>517</v>
+      </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25">
+      <c r="A21" s="24">
         <v>7</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="35" t="s">
         <v>61</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -2915,21 +3286,23 @@
       <c r="E21" s="7">
         <v>87</v>
       </c>
-      <c r="F21" s="42" t="s">
-        <v>382</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>425</v>
-      </c>
-      <c r="H21" s="8"/>
+      <c r="F21" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>473</v>
+      </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25">
+      <c r="A22" s="24">
         <v>7</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>58</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -2941,21 +3314,23 @@
       <c r="E22" s="7">
         <v>87</v>
       </c>
-      <c r="F22" s="42" t="s">
-        <v>384</v>
-      </c>
-      <c r="G22" s="42" t="s">
-        <v>431</v>
-      </c>
-      <c r="H22" s="8"/>
+      <c r="F22" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>425</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>474</v>
+      </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25">
+      <c r="A23" s="24">
         <v>7</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="28" t="s">
         <v>64</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -2967,21 +3342,23 @@
       <c r="E23" s="7">
         <v>87</v>
       </c>
-      <c r="F23" s="42" t="s">
-        <v>384</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>455</v>
-      </c>
-      <c r="H23" s="8"/>
+      <c r="F23" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>445</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>465</v>
+      </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="26">
+      <c r="A24" s="25">
         <v>8</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="34" t="s">
         <v>70</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -2993,21 +3370,23 @@
       <c r="E24" s="11">
         <v>93</v>
       </c>
-      <c r="F24" s="43" t="s">
-        <v>375</v>
-      </c>
-      <c r="G24" s="43" t="s">
-        <v>453</v>
-      </c>
-      <c r="H24" s="12"/>
+      <c r="F24" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>443</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>506</v>
+      </c>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="26">
+      <c r="A25" s="25">
         <v>8</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="30" t="s">
         <v>67</v>
       </c>
       <c r="C25" s="12" t="s">
@@ -3019,21 +3398,23 @@
       <c r="E25" s="11">
         <v>93</v>
       </c>
-      <c r="F25" s="43" t="s">
-        <v>402</v>
-      </c>
-      <c r="G25" s="43" t="s">
-        <v>453</v>
-      </c>
-      <c r="H25" s="12"/>
+      <c r="F25" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>443</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>507</v>
+      </c>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
     </row>
     <row r="26" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="26">
+      <c r="A26" s="25">
         <v>8</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="30" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="12" t="s">
@@ -3045,21 +3426,23 @@
       <c r="E26" s="11">
         <v>93</v>
       </c>
-      <c r="F26" s="43" t="s">
-        <v>377</v>
-      </c>
-      <c r="G26" s="43" t="s">
-        <v>453</v>
-      </c>
-      <c r="H26" s="12"/>
+      <c r="F26" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>443</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>507</v>
+      </c>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
     </row>
     <row r="27" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25">
+      <c r="A27" s="24">
         <v>9</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="35" t="s">
         <v>79</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -3071,21 +3454,23 @@
       <c r="E27" s="7">
         <v>82</v>
       </c>
-      <c r="F27" s="42" t="s">
-        <v>384</v>
-      </c>
-      <c r="G27" s="42" t="s">
-        <v>410</v>
-      </c>
-      <c r="H27" s="8"/>
+      <c r="F27" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>388</v>
+      </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25">
+      <c r="A28" s="24">
         <v>9</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="28" t="s">
         <v>76</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -3097,21 +3482,23 @@
       <c r="E28" s="7">
         <v>82</v>
       </c>
-      <c r="F28" s="42" t="s">
-        <v>400</v>
-      </c>
-      <c r="G28" s="42" t="s">
-        <v>409</v>
-      </c>
-      <c r="H28" s="8"/>
+      <c r="F28" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>403</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>388</v>
+      </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25">
+      <c r="A29" s="24">
         <v>9</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="28" t="s">
         <v>82</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -3123,47 +3510,51 @@
       <c r="E29" s="7">
         <v>82</v>
       </c>
-      <c r="F29" s="42" t="s">
-        <v>403</v>
-      </c>
-      <c r="G29" s="42" t="s">
-        <v>419</v>
-      </c>
-      <c r="H29" s="8"/>
+      <c r="F29" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="G29" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>388</v>
+      </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="26">
+      <c r="A30" s="25">
         <v>10</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="23" t="s">
         <v>87</v>
       </c>
       <c r="E30" s="11">
         <v>88</v>
       </c>
-      <c r="F30" s="43" t="s">
-        <v>375</v>
-      </c>
-      <c r="G30" s="43" t="s">
-        <v>422</v>
-      </c>
-      <c r="H30" s="12"/>
+      <c r="F30" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="G30" s="42" t="s">
+        <v>416</v>
+      </c>
+      <c r="H30" s="42" t="s">
+        <v>495</v>
+      </c>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
     </row>
     <row r="31" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="26">
+      <c r="A31" s="25">
         <v>10</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="30" t="s">
         <v>88</v>
       </c>
       <c r="C31" s="12" t="s">
@@ -3175,21 +3566,23 @@
       <c r="E31" s="11">
         <v>88</v>
       </c>
-      <c r="F31" s="43" t="s">
-        <v>376</v>
-      </c>
-      <c r="G31" s="43" t="s">
-        <v>423</v>
-      </c>
-      <c r="H31" s="12"/>
+      <c r="F31" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="G31" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="H31" s="42" t="s">
+        <v>497</v>
+      </c>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
     </row>
     <row r="32" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="26">
+      <c r="A32" s="25">
         <v>10</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="30" t="s">
         <v>91</v>
       </c>
       <c r="C32" s="12" t="s">
@@ -3201,21 +3594,23 @@
       <c r="E32" s="11">
         <v>88</v>
       </c>
-      <c r="F32" s="43" t="s">
-        <v>377</v>
-      </c>
-      <c r="G32" s="43" t="s">
-        <v>422</v>
-      </c>
-      <c r="H32" s="12"/>
+      <c r="F32" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="G32" s="42" t="s">
+        <v>416</v>
+      </c>
+      <c r="H32" s="42" t="s">
+        <v>495</v>
+      </c>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
     </row>
     <row r="33" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25">
+      <c r="A33" s="24">
         <v>11</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="35" t="s">
         <v>94</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -3224,24 +3619,26 @@
       <c r="D33" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="F33" s="42" t="s">
-        <v>402</v>
-      </c>
-      <c r="G33" s="42" t="s">
-        <v>451</v>
-      </c>
-      <c r="H33" s="8"/>
+      <c r="E33" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>441</v>
+      </c>
+      <c r="H33" s="41" t="s">
+        <v>522</v>
+      </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
     </row>
     <row r="34" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25">
+      <c r="A34" s="24">
         <v>11</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="28" t="s">
         <v>97</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -3250,24 +3647,26 @@
       <c r="D34" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E34" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="F34" s="42" t="s">
-        <v>375</v>
-      </c>
-      <c r="G34" s="42" t="s">
-        <v>452</v>
-      </c>
-      <c r="H34" s="8"/>
+      <c r="E34" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="F34" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="G34" s="41" t="s">
+        <v>442</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>523</v>
+      </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25">
+      <c r="A35" s="24">
         <v>11</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="28" t="s">
         <v>100</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -3276,24 +3675,26 @@
       <c r="D35" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E35" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="F35" s="42" t="s">
-        <v>375</v>
-      </c>
-      <c r="G35" s="42" t="s">
-        <v>452</v>
-      </c>
-      <c r="H35" s="8"/>
+      <c r="E35" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="F35" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="G35" s="41" t="s">
+        <v>442</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>522</v>
+      </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="26">
+      <c r="A36" s="25">
         <v>12</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="34" t="s">
         <v>103</v>
       </c>
       <c r="C36" s="10" t="s">
@@ -3305,21 +3706,23 @@
       <c r="E36" s="11">
         <v>85</v>
       </c>
-      <c r="F36" s="43" t="s">
-        <v>380</v>
-      </c>
-      <c r="G36" s="43" t="s">
-        <v>414</v>
-      </c>
-      <c r="H36" s="12"/>
+      <c r="F36" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="G36" s="42" t="s">
+        <v>408</v>
+      </c>
+      <c r="H36" s="42" t="s">
+        <v>468</v>
+      </c>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
     </row>
     <row r="37" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="26">
+      <c r="A37" s="25">
         <v>12</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="30" t="s">
         <v>106</v>
       </c>
       <c r="C37" s="12" t="s">
@@ -3331,21 +3734,23 @@
       <c r="E37" s="11">
         <v>85</v>
       </c>
-      <c r="F37" s="43" t="s">
-        <v>391</v>
-      </c>
-      <c r="G37" s="43" t="s">
-        <v>414</v>
-      </c>
-      <c r="H37" s="12"/>
+      <c r="F37" s="42" t="s">
+        <v>387</v>
+      </c>
+      <c r="G37" s="42" t="s">
+        <v>408</v>
+      </c>
+      <c r="H37" s="42" t="s">
+        <v>468</v>
+      </c>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
     </row>
     <row r="38" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="26">
+      <c r="A38" s="25">
         <v>12</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="30" t="s">
         <v>109</v>
       </c>
       <c r="C38" s="12" t="s">
@@ -3357,21 +3762,23 @@
       <c r="E38" s="11">
         <v>85</v>
       </c>
-      <c r="F38" s="43" t="s">
-        <v>380</v>
-      </c>
-      <c r="G38" s="43" t="s">
-        <v>414</v>
-      </c>
-      <c r="H38" s="12"/>
+      <c r="F38" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="G38" s="42" t="s">
+        <v>408</v>
+      </c>
+      <c r="H38" s="42" t="s">
+        <v>468</v>
+      </c>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
     </row>
     <row r="39" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25">
+      <c r="A39" s="24">
         <v>13</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="35" t="s">
         <v>112</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -3380,24 +3787,26 @@
       <c r="D39" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E39" s="42">
+      <c r="E39" s="41">
         <v>75</v>
       </c>
-      <c r="F39" s="42">
+      <c r="F39" s="41">
         <v>75</v>
       </c>
-      <c r="G39" s="42" t="s">
-        <v>417</v>
-      </c>
-      <c r="H39" s="8"/>
+      <c r="G39" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="H39" s="41" t="s">
+        <v>502</v>
+      </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
     </row>
     <row r="40" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25">
+      <c r="A40" s="24">
         <v>13</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="28" t="s">
         <v>115</v>
       </c>
       <c r="C40" s="8" t="s">
@@ -3406,24 +3815,26 @@
       <c r="D40" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E40" s="42">
+      <c r="E40" s="41">
         <v>75</v>
       </c>
-      <c r="F40" s="42">
+      <c r="F40" s="41">
         <v>75</v>
       </c>
-      <c r="G40" s="42" t="s">
-        <v>446</v>
-      </c>
-      <c r="H40" s="8"/>
+      <c r="G40" s="41" t="s">
+        <v>437</v>
+      </c>
+      <c r="H40" s="41" t="s">
+        <v>502</v>
+      </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
     </row>
     <row r="41" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25">
+      <c r="A41" s="24">
         <v>13</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="28" t="s">
         <v>118</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -3432,24 +3843,26 @@
       <c r="D41" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E41" s="42">
+      <c r="E41" s="41">
         <v>75</v>
       </c>
-      <c r="F41" s="42">
+      <c r="F41" s="41">
         <v>75</v>
       </c>
-      <c r="G41" s="42" t="s">
-        <v>447</v>
-      </c>
-      <c r="H41" s="8"/>
+      <c r="G41" s="41" t="s">
+        <v>438</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>503</v>
+      </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
     </row>
     <row r="42" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="26">
+      <c r="A42" s="25">
         <v>14</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="30" t="s">
         <v>121</v>
       </c>
       <c r="C42" s="12" t="s">
@@ -3461,47 +3874,51 @@
       <c r="E42" s="11">
         <v>82</v>
       </c>
-      <c r="F42" s="43" t="s">
-        <v>392</v>
-      </c>
-      <c r="G42" s="43" t="s">
-        <v>409</v>
-      </c>
-      <c r="H42" s="12"/>
+      <c r="F42" s="42" t="s">
+        <v>388</v>
+      </c>
+      <c r="G42" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="H42" s="42" t="s">
+        <v>495</v>
+      </c>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
     </row>
     <row r="43" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="26">
+      <c r="A43" s="25">
         <v>14</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="30" t="s">
         <v>124</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>125</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E43" s="11">
         <v>82</v>
       </c>
-      <c r="F43" s="43" t="s">
-        <v>392</v>
-      </c>
-      <c r="G43" s="43" t="s">
-        <v>454</v>
-      </c>
-      <c r="H43" s="12"/>
+      <c r="F43" s="42" t="s">
+        <v>388</v>
+      </c>
+      <c r="G43" s="42" t="s">
+        <v>444</v>
+      </c>
+      <c r="H43" s="42" t="s">
+        <v>496</v>
+      </c>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
     </row>
     <row r="44" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="26">
+      <c r="A44" s="25">
         <v>14</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="30" t="s">
         <v>126</v>
       </c>
       <c r="C44" s="9" t="s">
@@ -3513,21 +3930,23 @@
       <c r="E44" s="11">
         <v>82</v>
       </c>
-      <c r="F44" s="43" t="s">
-        <v>393</v>
-      </c>
-      <c r="G44" s="43" t="s">
-        <v>410</v>
-      </c>
-      <c r="H44" s="12"/>
+      <c r="F44" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="G44" s="42" t="s">
+        <v>494</v>
+      </c>
+      <c r="H44" s="42" t="s">
+        <v>497</v>
+      </c>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
     </row>
     <row r="45" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="25">
+      <c r="A45" s="24">
         <v>15</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="35" t="s">
         <v>135</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -3536,24 +3955,26 @@
       <c r="D45" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E45" s="42">
+      <c r="E45" s="41">
         <v>75</v>
       </c>
-      <c r="F45" s="42">
+      <c r="F45" s="41">
         <v>75</v>
       </c>
-      <c r="G45" s="42" t="s">
-        <v>418</v>
-      </c>
-      <c r="H45" s="8"/>
+      <c r="G45" s="41" t="s">
+        <v>412</v>
+      </c>
+      <c r="H45" s="41" t="s">
+        <v>502</v>
+      </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
     </row>
     <row r="46" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="25">
+      <c r="A46" s="24">
         <v>15</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="28" t="s">
         <v>129</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -3562,24 +3983,26 @@
       <c r="D46" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="42">
+      <c r="E46" s="41">
         <v>75</v>
       </c>
-      <c r="F46" s="42">
+      <c r="F46" s="41">
         <v>75</v>
       </c>
-      <c r="G46" s="42" t="s">
-        <v>418</v>
-      </c>
-      <c r="H46" s="8"/>
+      <c r="G46" s="41" t="s">
+        <v>412</v>
+      </c>
+      <c r="H46" s="41" t="s">
+        <v>503</v>
+      </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
     </row>
     <row r="47" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25">
+      <c r="A47" s="24">
         <v>15</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="28" t="s">
         <v>132</v>
       </c>
       <c r="C47" s="8" t="s">
@@ -3588,24 +4011,26 @@
       <c r="D47" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E47" s="42">
+      <c r="E47" s="41">
         <v>75</v>
       </c>
-      <c r="F47" s="42">
+      <c r="F47" s="41">
         <v>75</v>
       </c>
-      <c r="G47" s="42" t="s">
-        <v>447</v>
-      </c>
-      <c r="H47" s="8"/>
+      <c r="G47" s="41" t="s">
+        <v>438</v>
+      </c>
+      <c r="H47" s="41" t="s">
+        <v>504</v>
+      </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
     </row>
     <row r="48" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="26">
+      <c r="A48" s="25">
         <v>16</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="30" t="s">
         <v>141</v>
       </c>
       <c r="C48" s="12" t="s">
@@ -3617,21 +4042,25 @@
       <c r="E48" s="11">
         <v>82</v>
       </c>
-      <c r="F48" s="43" t="s">
+      <c r="F48" s="42" t="s">
+        <v>451</v>
+      </c>
+      <c r="G48" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="H48" s="43" t="s">
+        <v>462</v>
+      </c>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="G48" s="43" t="s">
-        <v>426</v>
-      </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
     </row>
     <row r="49" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="26">
+      <c r="A49" s="25">
         <v>16</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="30" t="s">
         <v>138</v>
       </c>
       <c r="C49" s="12" t="s">
@@ -3643,21 +4072,25 @@
       <c r="E49" s="11">
         <v>82</v>
       </c>
-      <c r="F49" s="43" t="s">
-        <v>418</v>
-      </c>
-      <c r="G49" s="43" t="s">
-        <v>426</v>
-      </c>
-      <c r="H49" s="12"/>
+      <c r="F49" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="G49" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="H49" s="43" t="s">
+        <v>462</v>
+      </c>
       <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
+      <c r="J49" s="12" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="50" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="26">
+      <c r="A50" s="25">
         <v>16</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="34" t="s">
         <v>144</v>
       </c>
       <c r="C50" s="10" t="s">
@@ -3669,21 +4102,25 @@
       <c r="E50" s="11">
         <v>82</v>
       </c>
-      <c r="F50" s="43" t="s">
-        <v>418</v>
-      </c>
-      <c r="G50" s="43" t="s">
-        <v>426</v>
-      </c>
-      <c r="H50" s="12"/>
+      <c r="F50" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="G50" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="H50" s="43" t="s">
+        <v>463</v>
+      </c>
       <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
+      <c r="J50" s="12" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="51" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="25">
+      <c r="A51" s="24">
         <v>17</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="33" t="s">
         <v>147</v>
       </c>
       <c r="C51" s="20" t="s">
@@ -3695,21 +4132,23 @@
       <c r="E51" s="7">
         <v>85</v>
       </c>
-      <c r="F51" s="42" t="s">
-        <v>385</v>
-      </c>
-      <c r="G51" s="42" t="s">
-        <v>411</v>
-      </c>
-      <c r="H51" s="8"/>
+      <c r="F51" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="G51" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="H51" s="41" t="s">
+        <v>515</v>
+      </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
     </row>
     <row r="52" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25">
+      <c r="A52" s="24">
         <v>17</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="28" t="s">
         <v>150</v>
       </c>
       <c r="C52" s="8" t="s">
@@ -3721,21 +4160,23 @@
       <c r="E52" s="7">
         <v>85</v>
       </c>
-      <c r="F52" s="42" t="s">
-        <v>375</v>
-      </c>
-      <c r="G52" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="H52" s="8"/>
+      <c r="F52" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="G52" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="H52" s="41" t="s">
+        <v>516</v>
+      </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
     </row>
     <row r="53" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="25">
+      <c r="A53" s="24">
         <v>17</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="28" t="s">
         <v>153</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -3747,21 +4188,23 @@
       <c r="E53" s="7">
         <v>85</v>
       </c>
-      <c r="F53" s="42" t="s">
-        <v>377</v>
-      </c>
-      <c r="G53" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="H53" s="8"/>
+      <c r="F53" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="G53" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="H53" s="41" t="s">
+        <v>511</v>
+      </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
     </row>
     <row r="54" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="26">
+      <c r="A54" s="25">
         <v>18</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="29" t="s">
         <v>156</v>
       </c>
       <c r="C54" s="9" t="s">
@@ -3773,21 +4216,23 @@
       <c r="E54" s="11">
         <v>88</v>
       </c>
-      <c r="F54" s="43" t="s">
-        <v>399</v>
-      </c>
-      <c r="G54" s="43" t="s">
-        <v>450</v>
-      </c>
-      <c r="H54" s="12"/>
+      <c r="F54" s="42" t="s">
+        <v>395</v>
+      </c>
+      <c r="G54" s="42" t="s">
+        <v>440</v>
+      </c>
+      <c r="H54" s="42" t="s">
+        <v>508</v>
+      </c>
       <c r="I54" s="12"/>
       <c r="J54" s="12"/>
     </row>
     <row r="55" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="26">
+      <c r="A55" s="25">
         <v>18</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="30" t="s">
         <v>159</v>
       </c>
       <c r="C55" s="12" t="s">
@@ -3799,21 +4244,23 @@
       <c r="E55" s="11">
         <v>88</v>
       </c>
-      <c r="F55" s="43" t="s">
-        <v>399</v>
-      </c>
-      <c r="G55" s="43" t="s">
-        <v>450</v>
-      </c>
-      <c r="H55" s="12"/>
+      <c r="F55" s="42" t="s">
+        <v>395</v>
+      </c>
+      <c r="G55" s="42" t="s">
+        <v>440</v>
+      </c>
+      <c r="H55" s="42" t="s">
+        <v>508</v>
+      </c>
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
     </row>
     <row r="56" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="26">
+      <c r="A56" s="25">
         <v>18</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="30" t="s">
         <v>162</v>
       </c>
       <c r="C56" s="12" t="s">
@@ -3825,21 +4272,23 @@
       <c r="E56" s="11">
         <v>88</v>
       </c>
-      <c r="F56" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="G56" s="43" t="s">
-        <v>450</v>
-      </c>
-      <c r="H56" s="12"/>
+      <c r="F56" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="G56" s="42" t="s">
+        <v>440</v>
+      </c>
+      <c r="H56" s="42" t="s">
+        <v>509</v>
+      </c>
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
     </row>
     <row r="57" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="25">
+      <c r="A57" s="24">
         <v>19</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="35" t="s">
         <v>165</v>
       </c>
       <c r="C57" s="5" t="s">
@@ -3851,21 +4300,23 @@
       <c r="E57" s="7">
         <v>90</v>
       </c>
-      <c r="F57" s="42" t="s">
-        <v>369</v>
-      </c>
-      <c r="G57" s="42" t="s">
-        <v>442</v>
-      </c>
-      <c r="H57" s="8"/>
+      <c r="F57" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="G57" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="H57" s="41" t="s">
+        <v>501</v>
+      </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
     </row>
     <row r="58" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="25">
+      <c r="A58" s="24">
         <v>19</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="28" t="s">
         <v>168</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -3877,21 +4328,23 @@
       <c r="E58" s="7">
         <v>90</v>
       </c>
-      <c r="F58" s="42" t="s">
-        <v>369</v>
-      </c>
-      <c r="G58" s="42" t="s">
-        <v>410</v>
-      </c>
-      <c r="H58" s="8"/>
+      <c r="F58" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="G58" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="H58" s="41" t="s">
+        <v>501</v>
+      </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="25">
+      <c r="A59" s="24">
         <v>19</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="28" t="s">
         <v>171</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -3903,21 +4356,23 @@
       <c r="E59" s="7">
         <v>90</v>
       </c>
-      <c r="F59" s="42" t="s">
-        <v>369</v>
-      </c>
-      <c r="G59" s="42" t="s">
-        <v>443</v>
-      </c>
-      <c r="H59" s="8"/>
+      <c r="F59" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="G59" s="41" t="s">
+        <v>435</v>
+      </c>
+      <c r="H59" s="41" t="s">
+        <v>501</v>
+      </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
     </row>
     <row r="60" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="26">
+      <c r="A60" s="25">
         <v>20</v>
       </c>
-      <c r="B60" s="35" t="s">
+      <c r="B60" s="34" t="s">
         <v>177</v>
       </c>
       <c r="C60" s="10" t="s">
@@ -3929,21 +4384,23 @@
       <c r="E60" s="11">
         <v>90</v>
       </c>
-      <c r="F60" s="43" t="s">
-        <v>378</v>
-      </c>
-      <c r="G60" s="43" t="s">
-        <v>425</v>
-      </c>
-      <c r="H60" s="12"/>
+      <c r="F60" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="G60" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="H60" s="42" t="s">
+        <v>468</v>
+      </c>
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
     </row>
     <row r="61" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="26">
+      <c r="A61" s="25">
         <v>20</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="30" t="s">
         <v>174</v>
       </c>
       <c r="C61" s="12" t="s">
@@ -3955,47 +4412,51 @@
       <c r="E61" s="11">
         <v>90</v>
       </c>
-      <c r="F61" s="43" t="s">
-        <v>378</v>
-      </c>
-      <c r="G61" s="43" t="s">
-        <v>431</v>
-      </c>
-      <c r="H61" s="12"/>
+      <c r="F61" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="G61" s="42" t="s">
+        <v>425</v>
+      </c>
+      <c r="H61" s="42" t="s">
+        <v>469</v>
+      </c>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
     </row>
     <row r="62" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="26">
+      <c r="A62" s="25">
         <v>20</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="30" t="s">
         <v>180</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>181</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="E62" s="11">
         <v>90</v>
       </c>
-      <c r="F62" s="43" t="s">
-        <v>378</v>
-      </c>
-      <c r="G62" s="43" t="s">
-        <v>425</v>
-      </c>
-      <c r="H62" s="12"/>
+      <c r="F62" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="G62" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="H62" s="42" t="s">
+        <v>470</v>
+      </c>
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
     </row>
     <row r="63" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="25">
+      <c r="A63" s="24">
         <v>21</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="33" t="s">
         <v>182</v>
       </c>
       <c r="C63" s="20" t="s">
@@ -4007,21 +4468,23 @@
       <c r="E63" s="7">
         <v>83</v>
       </c>
-      <c r="F63" s="42" t="s">
-        <v>382</v>
-      </c>
-      <c r="G63" s="42" t="s">
-        <v>428</v>
-      </c>
-      <c r="H63" s="8"/>
+      <c r="F63" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="G63" s="41" t="s">
+        <v>422</v>
+      </c>
+      <c r="H63" s="41" t="s">
+        <v>482</v>
+      </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
     </row>
     <row r="64" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="25">
+      <c r="A64" s="24">
         <v>21</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="28" t="s">
         <v>185</v>
       </c>
       <c r="C64" s="8" t="s">
@@ -4033,21 +4496,23 @@
       <c r="E64" s="7">
         <v>83</v>
       </c>
-      <c r="F64" s="42" t="s">
-        <v>382</v>
-      </c>
-      <c r="G64" s="42" t="s">
-        <v>428</v>
-      </c>
-      <c r="H64" s="8"/>
+      <c r="F64" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="G64" s="41" t="s">
+        <v>422</v>
+      </c>
+      <c r="H64" s="41" t="s">
+        <v>482</v>
+      </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
     </row>
     <row r="65" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="25">
+      <c r="A65" s="24">
         <v>21</v>
       </c>
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="28" t="s">
         <v>188</v>
       </c>
       <c r="C65" s="8" t="s">
@@ -4059,47 +4524,51 @@
       <c r="E65" s="7">
         <v>83</v>
       </c>
-      <c r="F65" s="42" t="s">
-        <v>382</v>
-      </c>
-      <c r="G65" s="42" t="s">
-        <v>436</v>
-      </c>
-      <c r="H65" s="8"/>
+      <c r="F65" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="G65" s="41" t="s">
+        <v>430</v>
+      </c>
+      <c r="H65" s="41" t="s">
+        <v>482</v>
+      </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
     </row>
     <row r="66" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="26">
+      <c r="A66" s="25">
         <v>22</v>
       </c>
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C66" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="D66" s="24" t="s">
+      <c r="D66" s="23" t="s">
         <v>202</v>
       </c>
       <c r="E66" s="11">
         <v>85</v>
       </c>
-      <c r="F66" s="43" t="s">
-        <v>386</v>
-      </c>
-      <c r="G66" s="43" t="s">
-        <v>440</v>
-      </c>
-      <c r="H66" s="12"/>
+      <c r="F66" s="42" t="s">
+        <v>385</v>
+      </c>
+      <c r="G66" s="42" t="s">
+        <v>432</v>
+      </c>
+      <c r="H66" s="42" t="s">
+        <v>477</v>
+      </c>
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
     </row>
     <row r="67" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="26">
+      <c r="A67" s="25">
         <v>22</v>
       </c>
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="30" t="s">
         <v>197</v>
       </c>
       <c r="C67" s="12" t="s">
@@ -4111,21 +4580,23 @@
       <c r="E67" s="11">
         <v>85</v>
       </c>
-      <c r="F67" s="43" t="s">
-        <v>387</v>
-      </c>
-      <c r="G67" s="43" t="s">
-        <v>441</v>
-      </c>
-      <c r="H67" s="12"/>
+      <c r="F67" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="G67" s="42" t="s">
+        <v>433</v>
+      </c>
+      <c r="H67" s="42" t="s">
+        <v>478</v>
+      </c>
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
     </row>
     <row r="68" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="26">
+      <c r="A68" s="25">
         <v>22</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="30" t="s">
         <v>203</v>
       </c>
       <c r="C68" s="12" t="s">
@@ -4137,21 +4608,23 @@
       <c r="E68" s="11">
         <v>85</v>
       </c>
-      <c r="F68" s="43" t="s">
-        <v>387</v>
-      </c>
-      <c r="G68" s="43" t="s">
-        <v>416</v>
-      </c>
-      <c r="H68" s="12"/>
+      <c r="F68" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="G68" s="42" t="s">
+        <v>410</v>
+      </c>
+      <c r="H68" s="42" t="s">
+        <v>478</v>
+      </c>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
     </row>
     <row r="69" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="25">
+      <c r="A69" s="24">
         <v>23</v>
       </c>
-      <c r="B69" s="34" t="s">
+      <c r="B69" s="33" t="s">
         <v>206</v>
       </c>
       <c r="C69" s="20" t="s">
@@ -4163,21 +4636,23 @@
       <c r="E69" s="7">
         <v>80</v>
       </c>
-      <c r="F69" s="42" t="s">
-        <v>394</v>
-      </c>
-      <c r="G69" s="42" t="s">
-        <v>427</v>
-      </c>
-      <c r="H69" s="8"/>
+      <c r="F69" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="G69" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="H69" s="41" t="s">
+        <v>371</v>
+      </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
     </row>
     <row r="70" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="25">
+      <c r="A70" s="24">
         <v>23</v>
       </c>
-      <c r="B70" s="34" t="s">
+      <c r="B70" s="33" t="s">
         <v>209</v>
       </c>
       <c r="C70" s="20" t="s">
@@ -4189,21 +4664,23 @@
       <c r="E70" s="7">
         <v>80</v>
       </c>
-      <c r="F70" s="42" t="s">
-        <v>394</v>
-      </c>
-      <c r="G70" s="42" t="s">
-        <v>427</v>
-      </c>
-      <c r="H70" s="8"/>
+      <c r="F70" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="G70" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="H70" s="41" t="s">
+        <v>371</v>
+      </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
     </row>
     <row r="71" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="25">
+      <c r="A71" s="24">
         <v>23</v>
       </c>
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="33" t="s">
         <v>212</v>
       </c>
       <c r="C71" s="20" t="s">
@@ -4215,47 +4692,51 @@
       <c r="E71" s="7">
         <v>80</v>
       </c>
-      <c r="F71" s="42" t="s">
-        <v>394</v>
-      </c>
-      <c r="G71" s="42" t="s">
-        <v>427</v>
-      </c>
-      <c r="H71" s="8"/>
+      <c r="F71" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="G71" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="H71" s="41" t="s">
+        <v>531</v>
+      </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
     </row>
     <row r="72" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="26">
+      <c r="A72" s="25">
         <v>24</v>
       </c>
-      <c r="B72" s="37" t="s">
+      <c r="B72" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="C72" s="24" t="s">
+      <c r="C72" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="D72" s="24" t="s">
+      <c r="D72" s="23" t="s">
         <v>220</v>
       </c>
       <c r="E72" s="11">
         <v>90</v>
       </c>
-      <c r="F72" s="43" t="s">
-        <v>387</v>
-      </c>
-      <c r="G72" s="43" t="s">
-        <v>429</v>
-      </c>
-      <c r="H72" s="12"/>
+      <c r="F72" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="G72" s="42" t="s">
+        <v>423</v>
+      </c>
+      <c r="H72" s="42" t="s">
+        <v>488</v>
+      </c>
       <c r="I72" s="12"/>
       <c r="J72" s="12"/>
     </row>
     <row r="73" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="26">
+      <c r="A73" s="25">
         <v>24</v>
       </c>
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="30" t="s">
         <v>215</v>
       </c>
       <c r="C73" s="12" t="s">
@@ -4267,21 +4748,23 @@
       <c r="E73" s="11">
         <v>90</v>
       </c>
-      <c r="F73" s="43" t="s">
-        <v>386</v>
-      </c>
-      <c r="G73" s="43" t="s">
-        <v>415</v>
-      </c>
-      <c r="H73" s="12"/>
+      <c r="F73" s="42" t="s">
+        <v>385</v>
+      </c>
+      <c r="G73" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="H73" s="42" t="s">
+        <v>489</v>
+      </c>
       <c r="I73" s="12"/>
       <c r="J73" s="12"/>
     </row>
     <row r="74" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="26">
+      <c r="A74" s="25">
         <v>24</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="30" t="s">
         <v>221</v>
       </c>
       <c r="C74" s="12" t="s">
@@ -4293,21 +4776,23 @@
       <c r="E74" s="11">
         <v>90</v>
       </c>
-      <c r="F74" s="43" t="s">
-        <v>387</v>
-      </c>
-      <c r="G74" s="43" t="s">
-        <v>415</v>
-      </c>
-      <c r="H74" s="12"/>
+      <c r="F74" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="G74" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="H74" s="42" t="s">
+        <v>489</v>
+      </c>
       <c r="I74" s="12"/>
       <c r="J74" s="12"/>
     </row>
     <row r="75" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25">
+      <c r="A75" s="24">
         <v>25</v>
       </c>
-      <c r="B75" s="38" t="s">
+      <c r="B75" s="37" t="s">
         <v>233</v>
       </c>
       <c r="C75" s="21" t="s">
@@ -4319,23 +4804,25 @@
       <c r="E75" s="7">
         <v>80</v>
       </c>
-      <c r="F75" s="44" t="s">
-        <v>470</v>
-      </c>
-      <c r="G75" s="42" t="s">
-        <v>427</v>
-      </c>
-      <c r="H75" s="8"/>
+      <c r="F75" s="43" t="s">
+        <v>526</v>
+      </c>
+      <c r="G75" s="41" t="s">
+        <v>408</v>
+      </c>
+      <c r="H75" s="43" t="s">
+        <v>529</v>
+      </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8" t="s">
-        <v>472</v>
+        <v>543</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="25">
+      <c r="A76" s="24">
         <v>25</v>
       </c>
-      <c r="B76" s="29" t="s">
+      <c r="B76" s="28" t="s">
         <v>230</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -4347,23 +4834,23 @@
       <c r="E76" s="7">
         <v>80</v>
       </c>
-      <c r="F76" s="44" t="s">
-        <v>470</v>
-      </c>
-      <c r="G76" s="42" t="s">
-        <v>456</v>
-      </c>
-      <c r="H76" s="8"/>
+      <c r="F76" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="G76" s="41" t="s">
+        <v>446</v>
+      </c>
+      <c r="H76" s="43" t="s">
+        <v>529</v>
+      </c>
       <c r="I76" s="8"/>
-      <c r="J76" s="8" t="s">
-        <v>472</v>
-      </c>
+      <c r="J76" s="8"/>
     </row>
     <row r="77" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="25">
+      <c r="A77" s="24">
         <v>25</v>
       </c>
-      <c r="B77" s="29" t="s">
+      <c r="B77" s="28" t="s">
         <v>236</v>
       </c>
       <c r="C77" s="8" t="s">
@@ -4375,23 +4862,23 @@
       <c r="E77" s="7">
         <v>80</v>
       </c>
-      <c r="F77" s="44" t="s">
-        <v>471</v>
-      </c>
-      <c r="G77" s="42" t="s">
-        <v>457</v>
-      </c>
-      <c r="H77" s="8"/>
+      <c r="F77" s="43" t="s">
+        <v>553</v>
+      </c>
+      <c r="G77" s="41" t="s">
+        <v>530</v>
+      </c>
+      <c r="H77" s="43" t="s">
+        <v>367</v>
+      </c>
       <c r="I77" s="8"/>
-      <c r="J77" s="8" t="s">
-        <v>472</v>
-      </c>
+      <c r="J77" s="8"/>
     </row>
     <row r="78" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="26">
+      <c r="A78" s="25">
         <v>26</v>
       </c>
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="30" t="s">
         <v>245</v>
       </c>
       <c r="C78" s="12" t="s">
@@ -4400,24 +4887,28 @@
       <c r="D78" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E78" s="42">
         <v>85</v>
       </c>
-      <c r="F78" s="44" t="s">
-        <v>406</v>
-      </c>
-      <c r="G78" s="43" t="s">
-        <v>424</v>
-      </c>
-      <c r="H78" s="12"/>
+      <c r="F78" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="G78" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="H78" s="42" t="s">
+        <v>381</v>
+      </c>
       <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
+      <c r="J78" s="12" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="79" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="26">
+      <c r="A79" s="25">
         <v>26</v>
       </c>
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="30" t="s">
         <v>248</v>
       </c>
       <c r="C79" s="12" t="s">
@@ -4426,76 +4917,82 @@
       <c r="D79" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E79" s="42">
         <v>85</v>
       </c>
-      <c r="F79" s="44" t="s">
-        <v>406</v>
-      </c>
-      <c r="G79" s="43" t="s">
-        <v>425</v>
-      </c>
-      <c r="H79" s="12"/>
+      <c r="F79" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="G79" s="42" t="s">
+        <v>551</v>
+      </c>
+      <c r="H79" s="42" t="s">
+        <v>381</v>
+      </c>
       <c r="I79" s="12"/>
       <c r="J79" s="12"/>
     </row>
     <row r="80" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="26">
+      <c r="A80" s="25">
         <v>26</v>
       </c>
-      <c r="B80" s="31" t="s">
+      <c r="B80" s="30" t="s">
         <v>251</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="E80" s="11">
+        <v>402</v>
+      </c>
+      <c r="E80" s="42">
         <v>85</v>
       </c>
-      <c r="F80" s="44" t="s">
-        <v>406</v>
-      </c>
-      <c r="G80" s="43" t="s">
-        <v>425</v>
-      </c>
-      <c r="H80" s="12"/>
+      <c r="F80" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="G80" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="H80" s="42" t="s">
+        <v>552</v>
+      </c>
       <c r="I80" s="12"/>
       <c r="J80" s="12"/>
     </row>
     <row r="81" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="25">
+      <c r="A81" s="24">
         <v>27</v>
       </c>
-      <c r="B81" s="38">
+      <c r="B81" s="37">
         <v>33</v>
       </c>
       <c r="C81" s="21">
         <v>18020022022</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E81" s="7">
         <v>75</v>
       </c>
-      <c r="F81" s="42" t="s">
-        <v>371</v>
-      </c>
-      <c r="G81" s="42" t="s">
-        <v>416</v>
-      </c>
-      <c r="H81" s="8"/>
+      <c r="F81" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="G81" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="H81" s="41" t="s">
+        <v>466</v>
+      </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
     </row>
     <row r="82" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25">
+      <c r="A82" s="24">
         <v>27</v>
       </c>
-      <c r="B82" s="29" t="s">
+      <c r="B82" s="28" t="s">
         <v>253</v>
       </c>
       <c r="C82" s="8" t="s">
@@ -4507,21 +5004,23 @@
       <c r="E82" s="7">
         <v>75</v>
       </c>
-      <c r="F82" s="42" t="s">
-        <v>371</v>
-      </c>
-      <c r="G82" s="42" t="s">
-        <v>416</v>
-      </c>
-      <c r="H82" s="8"/>
+      <c r="F82" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="G82" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="H82" s="41" t="s">
+        <v>467</v>
+      </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
     </row>
     <row r="83" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="25">
+      <c r="A83" s="24">
         <v>27</v>
       </c>
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="28" t="s">
         <v>256</v>
       </c>
       <c r="C83" s="8" t="s">
@@ -4533,21 +5032,23 @@
       <c r="E83" s="7">
         <v>75</v>
       </c>
-      <c r="F83" s="42" t="s">
-        <v>371</v>
-      </c>
-      <c r="G83" s="42" t="s">
-        <v>416</v>
-      </c>
-      <c r="H83" s="8"/>
+      <c r="F83" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="G83" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="H83" s="41" t="s">
+        <v>461</v>
+      </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
     </row>
     <row r="84" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="26">
+      <c r="A84" s="25">
         <v>28</v>
       </c>
-      <c r="B84" s="35" t="s">
+      <c r="B84" s="34" t="s">
         <v>265</v>
       </c>
       <c r="C84" s="10" t="s">
@@ -4559,21 +5060,23 @@
       <c r="E84" s="11">
         <v>85</v>
       </c>
-      <c r="F84" s="43" t="s">
-        <v>377</v>
-      </c>
-      <c r="G84" s="43" t="s">
-        <v>425</v>
-      </c>
-      <c r="H84" s="12"/>
+      <c r="F84" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="G84" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="H84" s="42" t="s">
+        <v>514</v>
+      </c>
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
     </row>
     <row r="85" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="26">
+      <c r="A85" s="25">
         <v>28</v>
       </c>
-      <c r="B85" s="31" t="s">
+      <c r="B85" s="30" t="s">
         <v>259</v>
       </c>
       <c r="C85" s="12" t="s">
@@ -4585,21 +5088,23 @@
       <c r="E85" s="11">
         <v>85</v>
       </c>
-      <c r="F85" s="43" t="s">
-        <v>377</v>
-      </c>
-      <c r="G85" s="43" t="s">
-        <v>431</v>
-      </c>
-      <c r="H85" s="12"/>
+      <c r="F85" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="G85" s="42" t="s">
+        <v>425</v>
+      </c>
+      <c r="H85" s="42" t="s">
+        <v>514</v>
+      </c>
       <c r="I85" s="12"/>
       <c r="J85" s="12"/>
     </row>
     <row r="86" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="26">
+      <c r="A86" s="25">
         <v>28</v>
       </c>
-      <c r="B86" s="31" t="s">
+      <c r="B86" s="30" t="s">
         <v>262</v>
       </c>
       <c r="C86" s="12" t="s">
@@ -4611,21 +5116,23 @@
       <c r="E86" s="11">
         <v>85</v>
       </c>
-      <c r="F86" s="43" t="s">
-        <v>375</v>
-      </c>
-      <c r="G86" s="43" t="s">
-        <v>430</v>
-      </c>
-      <c r="H86" s="12"/>
+      <c r="F86" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="G86" s="42" t="s">
+        <v>424</v>
+      </c>
+      <c r="H86" s="42" t="s">
+        <v>514</v>
+      </c>
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
     </row>
     <row r="87" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="25">
+      <c r="A87" s="24">
         <v>29</v>
       </c>
-      <c r="B87" s="36" t="s">
+      <c r="B87" s="35" t="s">
         <v>268</v>
       </c>
       <c r="C87" s="5" t="s">
@@ -4637,21 +5144,23 @@
       <c r="E87" s="7">
         <v>95</v>
       </c>
-      <c r="F87" s="42" t="s">
-        <v>377</v>
-      </c>
-      <c r="G87" s="42" t="s">
-        <v>453</v>
-      </c>
-      <c r="H87" s="8"/>
+      <c r="F87" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="G87" s="41" t="s">
+        <v>443</v>
+      </c>
+      <c r="H87" s="41" t="s">
+        <v>467</v>
+      </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
     </row>
     <row r="88" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="25">
+      <c r="A88" s="24">
         <v>29</v>
       </c>
-      <c r="B88" s="29" t="s">
+      <c r="B88" s="28" t="s">
         <v>271</v>
       </c>
       <c r="C88" s="8" t="s">
@@ -4663,21 +5172,23 @@
       <c r="E88" s="7">
         <v>95</v>
       </c>
-      <c r="F88" s="42" t="s">
-        <v>377</v>
-      </c>
-      <c r="G88" s="42" t="s">
-        <v>453</v>
-      </c>
-      <c r="H88" s="8"/>
+      <c r="F88" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="G88" s="41" t="s">
+        <v>443</v>
+      </c>
+      <c r="H88" s="41" t="s">
+        <v>471</v>
+      </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
     </row>
     <row r="89" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="25">
+      <c r="A89" s="24">
         <v>29</v>
       </c>
-      <c r="B89" s="29" t="s">
+      <c r="B89" s="28" t="s">
         <v>274</v>
       </c>
       <c r="C89" s="8" t="s">
@@ -4689,21 +5200,23 @@
       <c r="E89" s="7">
         <v>95</v>
       </c>
-      <c r="F89" s="42" t="s">
-        <v>377</v>
-      </c>
-      <c r="G89" s="42" t="s">
-        <v>453</v>
-      </c>
-      <c r="H89" s="8"/>
+      <c r="F89" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="G89" s="41" t="s">
+        <v>443</v>
+      </c>
+      <c r="H89" s="41" t="s">
+        <v>472</v>
+      </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
     </row>
     <row r="90" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="26">
+      <c r="A90" s="25">
         <v>30</v>
       </c>
-      <c r="B90" s="35" t="s">
+      <c r="B90" s="34" t="s">
         <v>298</v>
       </c>
       <c r="C90" s="10" t="s">
@@ -4712,24 +5225,26 @@
       <c r="D90" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="E90" s="11">
+      <c r="E90" s="42">
         <v>85</v>
       </c>
-      <c r="F90" s="44" t="s">
-        <v>392</v>
-      </c>
-      <c r="G90" s="43" t="s">
-        <v>444</v>
-      </c>
-      <c r="H90" s="12"/>
+      <c r="F90" s="42" t="s">
+        <v>388</v>
+      </c>
+      <c r="G90" s="42" t="s">
+        <v>527</v>
+      </c>
+      <c r="H90" s="42" t="s">
+        <v>475</v>
+      </c>
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
     </row>
     <row r="91" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="26">
+      <c r="A91" s="25">
         <v>30</v>
       </c>
-      <c r="B91" s="31" t="s">
+      <c r="B91" s="30" t="s">
         <v>295</v>
       </c>
       <c r="C91" s="12" t="s">
@@ -4738,24 +5253,26 @@
       <c r="D91" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="E91" s="11">
+      <c r="E91" s="42">
         <v>85</v>
       </c>
-      <c r="F91" s="44" t="s">
-        <v>392</v>
-      </c>
-      <c r="G91" s="43" t="s">
-        <v>444</v>
-      </c>
-      <c r="H91" s="12"/>
+      <c r="F91" s="42" t="s">
+        <v>528</v>
+      </c>
+      <c r="G91" s="42" t="s">
+        <v>436</v>
+      </c>
+      <c r="H91" s="42" t="s">
+        <v>475</v>
+      </c>
       <c r="I91" s="12"/>
       <c r="J91" s="12"/>
     </row>
     <row r="92" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="26">
+      <c r="A92" s="25">
         <v>30</v>
       </c>
-      <c r="B92" s="31" t="s">
+      <c r="B92" s="30" t="s">
         <v>301</v>
       </c>
       <c r="C92" s="12" t="s">
@@ -4764,24 +5281,26 @@
       <c r="D92" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="E92" s="11">
+      <c r="E92" s="42">
         <v>85</v>
       </c>
-      <c r="F92" s="44" t="s">
-        <v>392</v>
-      </c>
-      <c r="G92" s="43" t="s">
-        <v>445</v>
-      </c>
-      <c r="H92" s="12"/>
+      <c r="F92" s="42" t="s">
+        <v>528</v>
+      </c>
+      <c r="G92" s="42" t="s">
+        <v>527</v>
+      </c>
+      <c r="H92" s="42" t="s">
+        <v>476</v>
+      </c>
       <c r="I92" s="12"/>
       <c r="J92" s="12"/>
     </row>
     <row r="93" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="25">
+      <c r="A93" s="24">
         <v>31</v>
       </c>
-      <c r="B93" s="32" t="s">
+      <c r="B93" s="31" t="s">
         <v>29</v>
       </c>
       <c r="C93" s="14" t="s">
@@ -4790,24 +5309,26 @@
       <c r="D93" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="41">
         <v>87</v>
       </c>
-      <c r="F93" s="44" t="s">
-        <v>400</v>
-      </c>
-      <c r="G93" s="42" t="s">
-        <v>410</v>
-      </c>
-      <c r="H93" s="8"/>
+      <c r="F93" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="G93" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="H93" s="41" t="s">
+        <v>518</v>
+      </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
     </row>
     <row r="94" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="25">
+      <c r="A94" s="24">
         <v>31</v>
       </c>
-      <c r="B94" s="29" t="s">
+      <c r="B94" s="28" t="s">
         <v>26</v>
       </c>
       <c r="C94" s="8" t="s">
@@ -4816,24 +5337,26 @@
       <c r="D94" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="41">
         <v>87</v>
       </c>
-      <c r="F94" s="44" t="s">
-        <v>382</v>
-      </c>
-      <c r="G94" s="42" t="s">
-        <v>419</v>
-      </c>
-      <c r="H94" s="8"/>
+      <c r="F94" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="G94" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="H94" s="41" t="s">
+        <v>519</v>
+      </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
     </row>
     <row r="95" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="26">
+      <c r="A95" s="25">
         <v>32</v>
       </c>
-      <c r="B95" s="35" t="s">
+      <c r="B95" s="34" t="s">
         <v>191</v>
       </c>
       <c r="C95" s="10" t="s">
@@ -4845,21 +5368,23 @@
       <c r="E95" s="11">
         <v>85</v>
       </c>
-      <c r="F95" s="43" t="s">
-        <v>398</v>
-      </c>
-      <c r="G95" s="43" t="s">
-        <v>435</v>
-      </c>
-      <c r="H95" s="12"/>
+      <c r="F95" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="G95" s="42" t="s">
+        <v>429</v>
+      </c>
+      <c r="H95" s="42" t="s">
+        <v>486</v>
+      </c>
       <c r="I95" s="12"/>
       <c r="J95" s="12"/>
     </row>
     <row r="96" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="26">
+      <c r="A96" s="25">
         <v>32</v>
       </c>
-      <c r="B96" s="31" t="s">
+      <c r="B96" s="30" t="s">
         <v>194</v>
       </c>
       <c r="C96" s="12" t="s">
@@ -4871,21 +5396,23 @@
       <c r="E96" s="11">
         <v>85</v>
       </c>
-      <c r="F96" s="43" t="s">
-        <v>398</v>
-      </c>
-      <c r="G96" s="43" t="s">
-        <v>421</v>
-      </c>
-      <c r="H96" s="12"/>
+      <c r="F96" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="G96" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="H96" s="42" t="s">
+        <v>487</v>
+      </c>
       <c r="I96" s="12"/>
       <c r="J96" s="12"/>
     </row>
     <row r="97" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="25">
+      <c r="A97" s="24">
         <v>34</v>
       </c>
-      <c r="B97" s="29" t="s">
+      <c r="B97" s="28" t="s">
         <v>239</v>
       </c>
       <c r="C97" s="8" t="s">
@@ -4897,21 +5424,23 @@
       <c r="E97" s="7">
         <v>80</v>
       </c>
-      <c r="F97" s="42" t="s">
-        <v>397</v>
-      </c>
-      <c r="G97" s="42" t="s">
-        <v>409</v>
-      </c>
-      <c r="H97" s="8"/>
+      <c r="F97" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="G97" s="41" t="s">
+        <v>403</v>
+      </c>
+      <c r="H97" s="41" t="s">
+        <v>505</v>
+      </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
     </row>
     <row r="98" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="25">
+      <c r="A98" s="24">
         <v>34</v>
       </c>
-      <c r="B98" s="29" t="s">
+      <c r="B98" s="28" t="s">
         <v>242</v>
       </c>
       <c r="C98" s="8" t="s">
@@ -4923,21 +5452,23 @@
       <c r="E98" s="7">
         <v>80</v>
       </c>
-      <c r="F98" s="42" t="s">
-        <v>386</v>
-      </c>
-      <c r="G98" s="42" t="s">
-        <v>410</v>
-      </c>
-      <c r="H98" s="8"/>
+      <c r="F98" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="G98" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="H98" s="41" t="s">
+        <v>505</v>
+      </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
     </row>
     <row r="99" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="26">
+      <c r="A99" s="25">
         <v>35</v>
       </c>
-      <c r="B99" s="35" t="s">
+      <c r="B99" s="34" t="s">
         <v>283</v>
       </c>
       <c r="C99" s="10" t="s">
@@ -4949,21 +5480,23 @@
       <c r="E99" s="11">
         <v>88</v>
       </c>
-      <c r="F99" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="G99" s="43" t="s">
-        <v>453</v>
-      </c>
-      <c r="H99" s="12"/>
+      <c r="F99" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="G99" s="42" t="s">
+        <v>443</v>
+      </c>
+      <c r="H99" s="42" t="s">
+        <v>510</v>
+      </c>
       <c r="I99" s="12"/>
       <c r="J99" s="12"/>
     </row>
     <row r="100" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="26">
+      <c r="A100" s="25">
         <v>35</v>
       </c>
-      <c r="B100" s="31" t="s">
+      <c r="B100" s="30" t="s">
         <v>286</v>
       </c>
       <c r="C100" s="12" t="s">
@@ -4975,21 +5508,23 @@
       <c r="E100" s="11">
         <v>88</v>
       </c>
-      <c r="F100" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="G100" s="43" t="s">
-        <v>453</v>
-      </c>
-      <c r="H100" s="12"/>
+      <c r="F100" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="G100" s="42" t="s">
+        <v>443</v>
+      </c>
+      <c r="H100" s="42" t="s">
+        <v>511</v>
+      </c>
       <c r="I100" s="12"/>
       <c r="J100" s="12"/>
     </row>
     <row r="101" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="25">
+      <c r="A101" s="24">
         <v>36</v>
       </c>
-      <c r="B101" s="32" t="s">
+      <c r="B101" s="31" t="s">
         <v>289</v>
       </c>
       <c r="C101" s="14" t="s">
@@ -5001,21 +5536,23 @@
       <c r="E101" s="7">
         <v>88</v>
       </c>
-      <c r="F101" s="42" t="s">
-        <v>381</v>
-      </c>
-      <c r="G101" s="42" t="s">
-        <v>430</v>
-      </c>
-      <c r="H101" s="8"/>
+      <c r="F101" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="G101" s="41" t="s">
+        <v>424</v>
+      </c>
+      <c r="H101" s="41" t="s">
+        <v>512</v>
+      </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
     </row>
     <row r="102" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="25">
+      <c r="A102" s="24">
         <v>36</v>
       </c>
-      <c r="B102" s="29" t="s">
+      <c r="B102" s="28" t="s">
         <v>292</v>
       </c>
       <c r="C102" s="8" t="s">
@@ -5027,21 +5564,23 @@
       <c r="E102" s="7">
         <v>88</v>
       </c>
-      <c r="F102" s="42" t="s">
-        <v>380</v>
-      </c>
-      <c r="G102" s="42" t="s">
-        <v>424</v>
-      </c>
-      <c r="H102" s="8"/>
+      <c r="F102" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="G102" s="41" t="s">
+        <v>418</v>
+      </c>
+      <c r="H102" s="41" t="s">
+        <v>513</v>
+      </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
     </row>
     <row r="103" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="26">
+      <c r="A103" s="25">
         <v>37</v>
       </c>
-      <c r="B103" s="31" t="s">
+      <c r="B103" s="30" t="s">
         <v>304</v>
       </c>
       <c r="C103" s="12" t="s">
@@ -5053,21 +5592,23 @@
       <c r="E103" s="11">
         <v>87</v>
       </c>
-      <c r="F103" s="43" t="s">
-        <v>384</v>
-      </c>
-      <c r="G103" s="43" t="s">
-        <v>417</v>
-      </c>
-      <c r="H103" s="12"/>
+      <c r="F103" s="42" t="s">
+        <v>383</v>
+      </c>
+      <c r="G103" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="H103" s="42" t="s">
+        <v>492</v>
+      </c>
       <c r="I103" s="12"/>
       <c r="J103" s="12"/>
     </row>
     <row r="104" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="26">
+      <c r="A104" s="25">
         <v>37</v>
       </c>
-      <c r="B104" s="31" t="s">
+      <c r="B104" s="30" t="s">
         <v>307</v>
       </c>
       <c r="C104" s="12" t="s">
@@ -5079,21 +5620,23 @@
       <c r="E104" s="11">
         <v>87</v>
       </c>
-      <c r="F104" s="43" t="s">
-        <v>382</v>
-      </c>
-      <c r="G104" s="43" t="s">
-        <v>417</v>
-      </c>
-      <c r="H104" s="12"/>
+      <c r="F104" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="G104" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="H104" s="42" t="s">
+        <v>493</v>
+      </c>
       <c r="I104" s="12"/>
       <c r="J104" s="12"/>
     </row>
     <row r="105" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="25">
+      <c r="A105" s="24">
         <v>38</v>
       </c>
-      <c r="B105" s="34" t="s">
+      <c r="B105" s="33" t="s">
         <v>310</v>
       </c>
       <c r="C105" s="20" t="s">
@@ -5105,23 +5648,25 @@
       <c r="E105" s="7">
         <v>80</v>
       </c>
-      <c r="F105" s="42" t="s">
-        <v>391</v>
-      </c>
-      <c r="G105" s="44" t="s">
-        <v>437</v>
-      </c>
-      <c r="H105" s="8"/>
+      <c r="F105" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>367</v>
+      </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8" t="s">
-        <v>439</v>
+        <v>549</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="25">
+      <c r="A106" s="24">
         <v>38</v>
       </c>
-      <c r="B106" s="29" t="s">
+      <c r="B106" s="28" t="s">
         <v>313</v>
       </c>
       <c r="C106" s="8" t="s">
@@ -5133,21 +5678,23 @@
       <c r="E106" s="7">
         <v>80</v>
       </c>
-      <c r="F106" s="42" t="s">
-        <v>395</v>
-      </c>
-      <c r="G106" s="44" t="s">
-        <v>438</v>
-      </c>
-      <c r="H106" s="8"/>
+      <c r="F106" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>367</v>
+      </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
     </row>
     <row r="107" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="26">
+      <c r="A107" s="25">
         <v>39</v>
       </c>
-      <c r="B107" s="31" t="s">
+      <c r="B107" s="30" t="s">
         <v>277</v>
       </c>
       <c r="C107" s="12" t="s">
@@ -5159,23 +5706,25 @@
       <c r="E107" s="11">
         <v>83</v>
       </c>
-      <c r="F107" s="44" t="s">
-        <v>473</v>
-      </c>
-      <c r="G107" s="44" t="s">
-        <v>458</v>
-      </c>
-      <c r="H107" s="12"/>
+      <c r="F107" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="H107" s="11" t="s">
+        <v>526</v>
+      </c>
       <c r="I107" s="12"/>
       <c r="J107" s="12" t="s">
-        <v>459</v>
+        <v>550</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="26">
+      <c r="A108" s="25">
         <v>39</v>
       </c>
-      <c r="B108" s="30" t="s">
+      <c r="B108" s="29" t="s">
         <v>280</v>
       </c>
       <c r="C108" s="9" t="s">
@@ -5187,21 +5736,23 @@
       <c r="E108" s="11">
         <v>83</v>
       </c>
-      <c r="F108" s="44" t="s">
-        <v>437</v>
-      </c>
-      <c r="G108" s="44" t="s">
-        <v>437</v>
-      </c>
-      <c r="H108" s="12"/>
+      <c r="F108" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="H108" s="11" t="s">
+        <v>526</v>
+      </c>
       <c r="I108" s="12"/>
       <c r="J108" s="12"/>
     </row>
     <row r="109" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="25">
+      <c r="A109" s="24">
         <v>40</v>
       </c>
-      <c r="B109" s="32" t="s">
+      <c r="B109" s="31" t="s">
         <v>316</v>
       </c>
       <c r="C109" s="14" t="s">
@@ -5213,21 +5764,23 @@
       <c r="E109" s="7">
         <v>88</v>
       </c>
-      <c r="F109" s="42" t="s">
-        <v>401</v>
-      </c>
-      <c r="G109" s="42" t="s">
-        <v>419</v>
-      </c>
-      <c r="H109" s="8"/>
+      <c r="F109" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="G109" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="H109" s="41" t="s">
+        <v>500</v>
+      </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
     </row>
     <row r="110" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="25">
+      <c r="A110" s="24">
         <v>40</v>
       </c>
-      <c r="B110" s="29" t="s">
+      <c r="B110" s="28" t="s">
         <v>319</v>
       </c>
       <c r="C110" s="8" t="s">
@@ -5239,21 +5792,23 @@
       <c r="E110" s="7">
         <v>88</v>
       </c>
-      <c r="F110" s="42" t="s">
-        <v>399</v>
-      </c>
-      <c r="G110" s="42" t="s">
-        <v>449</v>
-      </c>
-      <c r="H110" s="8"/>
+      <c r="F110" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="G110" s="41" t="s">
+        <v>439</v>
+      </c>
+      <c r="H110" s="41" t="s">
+        <v>500</v>
+      </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
     </row>
     <row r="111" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="26">
+      <c r="A111" s="25">
         <v>44</v>
       </c>
-      <c r="B111" s="35" t="s">
+      <c r="B111" s="34" t="s">
         <v>324</v>
       </c>
       <c r="C111" s="10" t="s">
@@ -5265,21 +5820,23 @@
       <c r="E111" s="11">
         <v>92</v>
       </c>
-      <c r="F111" s="43" t="s">
-        <v>377</v>
-      </c>
-      <c r="G111" s="43" t="s">
-        <v>431</v>
-      </c>
-      <c r="H111" s="12"/>
+      <c r="F111" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="G111" s="42" t="s">
+        <v>425</v>
+      </c>
+      <c r="H111" s="42" t="s">
+        <v>510</v>
+      </c>
       <c r="I111" s="12"/>
       <c r="J111" s="12"/>
     </row>
     <row r="112" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="26">
+      <c r="A112" s="25">
         <v>44</v>
       </c>
-      <c r="B112" s="31" t="s">
+      <c r="B112" s="30" t="s">
         <v>327</v>
       </c>
       <c r="C112" s="12" t="s">
@@ -5291,21 +5848,23 @@
       <c r="E112" s="11">
         <v>92</v>
       </c>
-      <c r="F112" s="43" t="s">
-        <v>404</v>
-      </c>
-      <c r="G112" s="43" t="s">
-        <v>425</v>
-      </c>
-      <c r="H112" s="12"/>
+      <c r="F112" s="42" t="s">
+        <v>400</v>
+      </c>
+      <c r="G112" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="H112" s="42" t="s">
+        <v>511</v>
+      </c>
       <c r="I112" s="12"/>
       <c r="J112" s="12"/>
     </row>
     <row r="113" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="25">
+      <c r="A113" s="24">
         <v>48</v>
       </c>
-      <c r="B113" s="32" t="s">
+      <c r="B113" s="31" t="s">
         <v>330</v>
       </c>
       <c r="C113" s="14" t="s">
@@ -5317,21 +5876,23 @@
       <c r="E113" s="7">
         <v>95</v>
       </c>
-      <c r="F113" s="42" t="s">
-        <v>378</v>
-      </c>
-      <c r="G113" s="42" t="s">
-        <v>461</v>
-      </c>
-      <c r="H113" s="8"/>
+      <c r="F113" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="G113" s="41" t="s">
+        <v>448</v>
+      </c>
+      <c r="H113" s="41" t="s">
+        <v>520</v>
+      </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
     </row>
     <row r="114" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="25">
+      <c r="A114" s="24">
         <v>48</v>
       </c>
-      <c r="B114" s="29" t="s">
+      <c r="B114" s="28" t="s">
         <v>333</v>
       </c>
       <c r="C114" s="8" t="s">
@@ -5343,21 +5904,23 @@
       <c r="E114" s="7">
         <v>95</v>
       </c>
-      <c r="F114" s="42" t="s">
-        <v>378</v>
-      </c>
-      <c r="G114" s="42" t="s">
-        <v>462</v>
-      </c>
-      <c r="H114" s="8"/>
+      <c r="F114" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="G114" s="41" t="s">
+        <v>449</v>
+      </c>
+      <c r="H114" s="41" t="s">
+        <v>521</v>
+      </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
     </row>
     <row r="115" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="26">
+      <c r="A115" s="25">
         <v>50</v>
       </c>
-      <c r="B115" s="35" t="s">
+      <c r="B115" s="34" t="s">
         <v>336</v>
       </c>
       <c r="C115" s="10" t="s">
@@ -5369,21 +5932,23 @@
       <c r="E115" s="11">
         <v>88</v>
       </c>
-      <c r="F115" s="44" t="s">
-        <v>407</v>
-      </c>
-      <c r="G115" s="43" t="s">
-        <v>427</v>
-      </c>
-      <c r="H115" s="12"/>
+      <c r="F115" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="G115" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="H115" s="42" t="s">
+        <v>483</v>
+      </c>
       <c r="I115" s="12"/>
       <c r="J115" s="12"/>
     </row>
     <row r="116" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="26">
+      <c r="A116" s="25">
         <v>50</v>
       </c>
-      <c r="B116" s="31" t="s">
+      <c r="B116" s="30" t="s">
         <v>342</v>
       </c>
       <c r="C116" s="12" t="s">
@@ -5395,21 +5960,23 @@
       <c r="E116" s="11">
         <v>88</v>
       </c>
-      <c r="F116" s="44" t="s">
-        <v>407</v>
-      </c>
-      <c r="G116" s="43" t="s">
-        <v>434</v>
-      </c>
-      <c r="H116" s="12"/>
+      <c r="F116" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="G116" s="42" t="s">
+        <v>428</v>
+      </c>
+      <c r="H116" s="42" t="s">
+        <v>484</v>
+      </c>
       <c r="I116" s="12"/>
       <c r="J116" s="12"/>
     </row>
     <row r="117" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="26">
+      <c r="A117" s="25">
         <v>50</v>
       </c>
-      <c r="B117" s="31" t="s">
+      <c r="B117" s="30" t="s">
         <v>339</v>
       </c>
       <c r="C117" s="12" t="s">
@@ -5421,21 +5988,23 @@
       <c r="E117" s="11">
         <v>88</v>
       </c>
-      <c r="F117" s="44" t="s">
-        <v>407</v>
-      </c>
-      <c r="G117" s="43" t="s">
-        <v>427</v>
-      </c>
-      <c r="H117" s="12"/>
+      <c r="F117" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="G117" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="H117" s="42" t="s">
+        <v>485</v>
+      </c>
       <c r="I117" s="12"/>
       <c r="J117" s="12"/>
     </row>
     <row r="118" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="25">
+      <c r="A118" s="24">
         <v>55</v>
       </c>
-      <c r="B118" s="34" t="s">
+      <c r="B118" s="33" t="s">
         <v>224</v>
       </c>
       <c r="C118" s="20" t="s">
@@ -5447,21 +6016,23 @@
       <c r="E118" s="7">
         <v>80</v>
       </c>
-      <c r="F118" s="42" t="s">
-        <v>369</v>
-      </c>
-      <c r="G118" s="42" t="s">
-        <v>371</v>
-      </c>
-      <c r="H118" s="8"/>
+      <c r="F118" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="G118" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="H118" s="41" t="s">
+        <v>457</v>
+      </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
     </row>
     <row r="119" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="25">
+      <c r="A119" s="24">
         <v>55</v>
       </c>
-      <c r="B119" s="29" t="s">
+      <c r="B119" s="28" t="s">
         <v>227</v>
       </c>
       <c r="C119" s="8" t="s">
@@ -5473,149 +6044,201 @@
       <c r="E119" s="7">
         <v>80</v>
       </c>
-      <c r="F119" s="42" t="s">
+      <c r="F119" s="41" t="s">
+        <v>369</v>
+      </c>
+      <c r="G119" s="41" t="s">
         <v>370</v>
       </c>
-      <c r="G119" s="42" t="s">
-        <v>371</v>
-      </c>
-      <c r="H119" s="8"/>
+      <c r="H119" s="41" t="s">
+        <v>456</v>
+      </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
     </row>
     <row r="120" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="26">
+      <c r="A120" s="25">
         <v>57</v>
       </c>
-      <c r="B120" s="37" t="s">
+      <c r="B120" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="C120" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="C120" s="24" t="s">
-        <v>352</v>
-      </c>
-      <c r="D120" s="24" t="s">
-        <v>420</v>
+      <c r="D120" s="23" t="s">
+        <v>414</v>
       </c>
       <c r="E120" s="3">
         <v>78</v>
       </c>
-      <c r="F120" s="44" t="s">
-        <v>383</v>
-      </c>
-      <c r="G120" s="44" t="s">
-        <v>467</v>
-      </c>
-      <c r="H120" s="12"/>
+      <c r="F120" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="G120" s="43" t="s">
+        <v>452</v>
+      </c>
+      <c r="H120" s="43" t="s">
+        <v>490</v>
+      </c>
       <c r="I120" s="12"/>
       <c r="J120" s="12" t="s">
-        <v>469</v>
+        <v>559</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="26">
+      <c r="A121" s="25">
         <v>57</v>
       </c>
-      <c r="B121" s="31" t="s">
+      <c r="B121" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="C121" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="D121" s="13" t="s">
         <v>349</v>
-      </c>
-      <c r="D121" s="13" t="s">
-        <v>350</v>
       </c>
       <c r="E121" s="3">
         <v>78</v>
       </c>
-      <c r="F121" s="44" t="s">
-        <v>468</v>
-      </c>
-      <c r="G121" s="44" t="s">
-        <v>467</v>
-      </c>
-      <c r="H121" s="12"/>
+      <c r="F121" s="43" t="s">
+        <v>453</v>
+      </c>
+      <c r="G121" s="43" t="s">
+        <v>452</v>
+      </c>
+      <c r="H121" s="43" t="s">
+        <v>524</v>
+      </c>
       <c r="I121" s="12"/>
-      <c r="J121" s="12"/>
+      <c r="J121" s="12" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="122" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="B122" s="29" t="s">
+      <c r="A122" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="B122" s="28" t="s">
         <v>322</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>323</v>
       </c>
       <c r="D122" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="E122" s="7">
+        <v>78</v>
+      </c>
+      <c r="F122" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="G122" s="41" t="s">
         <v>362</v>
       </c>
-      <c r="E122" s="11">
-        <v>78</v>
-      </c>
-      <c r="F122" s="42" t="s">
-        <v>381</v>
-      </c>
-      <c r="G122" s="42" t="s">
-        <v>417</v>
-      </c>
-      <c r="H122" s="8"/>
+      <c r="H122" s="44" t="s">
+        <v>554</v>
+      </c>
       <c r="I122" s="8"/>
-      <c r="J122" s="8"/>
+      <c r="J122" s="8" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="123" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="25" t="s">
-        <v>366</v>
-      </c>
-      <c r="B123" s="29" t="s">
+      <c r="A123" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="B123" s="28" t="s">
         <v>345</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>346</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="E123" s="11">
+        <v>537</v>
+      </c>
+      <c r="E123" s="7">
         <v>78</v>
       </c>
-      <c r="F123" s="42" t="s">
-        <v>380</v>
-      </c>
-      <c r="G123" s="42" t="s">
-        <v>418</v>
-      </c>
-      <c r="H123" s="8"/>
+      <c r="F123" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="G123" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="H123" s="44" t="s">
+        <v>534</v>
+      </c>
       <c r="I123" s="8"/>
-      <c r="J123" s="8"/>
+      <c r="J123" s="8" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="124" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124"/>
-      <c r="B124"/>
-      <c r="C124"/>
-      <c r="D124"/>
-      <c r="E124"/>
-      <c r="F124"/>
-      <c r="G124"/>
-      <c r="H124"/>
-      <c r="I124"/>
-      <c r="J124"/>
+      <c r="A124" s="25">
+        <v>59</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="E124" s="43" t="s">
+        <v>431</v>
+      </c>
+      <c r="F124" s="42" t="s">
+        <v>535</v>
+      </c>
+      <c r="G124" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="H124" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="I124" s="25"/>
+      <c r="J124" s="12" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="125" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125"/>
-      <c r="B125"/>
-      <c r="C125"/>
-      <c r="D125"/>
-      <c r="E125"/>
-      <c r="F125"/>
-      <c r="G125"/>
-      <c r="H125"/>
-      <c r="I125"/>
-      <c r="J125"/>
+      <c r="A125" s="25">
+        <v>59</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="E125" s="43" t="s">
+        <v>536</v>
+      </c>
+      <c r="F125" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="G125" s="42" t="s">
+        <v>535</v>
+      </c>
+      <c r="H125" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="I125" s="25"/>
+      <c r="J125" s="12" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126"/>
-      <c r="B126" s="39"/>
+      <c r="B126" s="38"/>
       <c r="C126"/>
       <c r="D126"/>
       <c r="E126"/>
@@ -5627,7 +6250,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127"/>
-      <c r="B127" s="39"/>
+      <c r="B127" s="38"/>
       <c r="C127"/>
       <c r="D127"/>
       <c r="E127"/>
@@ -5639,7 +6262,7 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128"/>
-      <c r="B128" s="39"/>
+      <c r="B128" s="38"/>
       <c r="C128"/>
       <c r="D128"/>
       <c r="E128"/>
@@ -5651,7 +6274,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129"/>
-      <c r="B129" s="39"/>
+      <c r="B129" s="38"/>
       <c r="C129"/>
       <c r="D129"/>
       <c r="E129"/>
@@ -5663,7 +6286,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130"/>
-      <c r="B130" s="39"/>
+      <c r="B130" s="38"/>
       <c r="C130"/>
       <c r="D130"/>
       <c r="E130"/>
@@ -5675,7 +6298,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131"/>
-      <c r="B131" s="39"/>
+      <c r="B131" s="38"/>
       <c r="C131"/>
       <c r="D131"/>
       <c r="E131"/>
@@ -5687,7 +6310,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132"/>
-      <c r="B132" s="39"/>
+      <c r="B132" s="38"/>
       <c r="C132"/>
       <c r="D132"/>
       <c r="E132"/>
@@ -5699,7 +6322,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133"/>
-      <c r="B133" s="39"/>
+      <c r="B133" s="38"/>
       <c r="C133"/>
       <c r="D133"/>
       <c r="E133"/>
@@ -5711,7 +6334,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134"/>
-      <c r="B134" s="39"/>
+      <c r="B134" s="38"/>
       <c r="C134"/>
       <c r="D134"/>
       <c r="E134"/>
@@ -7244,7 +7867,7 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272"/>
-      <c r="B272" s="39"/>
+      <c r="B272" s="38"/>
       <c r="C272"/>
       <c r="D272"/>
       <c r="E272"/>
@@ -7256,7 +7879,7 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273"/>
-      <c r="B273" s="39"/>
+      <c r="B273" s="38"/>
       <c r="C273"/>
       <c r="D273"/>
       <c r="E273"/>
@@ -7268,7 +7891,7 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274"/>
-      <c r="B274" s="39"/>
+      <c r="B274" s="38"/>
       <c r="C274"/>
       <c r="D274"/>
       <c r="E274"/>
@@ -7280,7 +7903,7 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275"/>
-      <c r="B275" s="39"/>
+      <c r="B275" s="38"/>
       <c r="C275"/>
       <c r="D275"/>
       <c r="E275"/>
@@ -7292,7 +7915,7 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276"/>
-      <c r="B276" s="39"/>
+      <c r="B276" s="38"/>
       <c r="C276"/>
       <c r="D276"/>
       <c r="E276"/>
@@ -7304,7 +7927,7 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277"/>
-      <c r="B277" s="39"/>
+      <c r="B277" s="38"/>
       <c r="C277"/>
       <c r="D277"/>
       <c r="E277"/>
@@ -7316,7 +7939,7 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278"/>
-      <c r="B278" s="39"/>
+      <c r="B278" s="38"/>
       <c r="C278"/>
       <c r="D278"/>
       <c r="E278"/>
@@ -7328,7 +7951,7 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279"/>
-      <c r="B279" s="39"/>
+      <c r="B279" s="38"/>
       <c r="C279"/>
       <c r="D279"/>
       <c r="E279"/>
@@ -7340,7 +7963,7 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280"/>
-      <c r="B280" s="39"/>
+      <c r="B280" s="38"/>
       <c r="C280"/>
       <c r="D280"/>
       <c r="E280"/>
@@ -7352,7 +7975,7 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281"/>
-      <c r="B281" s="39"/>
+      <c r="B281" s="38"/>
       <c r="C281"/>
       <c r="D281"/>
       <c r="E281"/>
@@ -7364,7 +7987,7 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282"/>
-      <c r="B282" s="39"/>
+      <c r="B282" s="38"/>
       <c r="C282"/>
       <c r="D282"/>
       <c r="E282"/>
@@ -7376,7 +7999,7 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283"/>
-      <c r="B283" s="39"/>
+      <c r="B283" s="38"/>
       <c r="C283"/>
       <c r="D283"/>
       <c r="E283"/>
@@ -7388,7 +8011,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284"/>
-      <c r="B284" s="39"/>
+      <c r="B284" s="38"/>
       <c r="C284"/>
       <c r="D284"/>
       <c r="E284"/>
@@ -7400,7 +8023,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285"/>
-      <c r="B285" s="39"/>
+      <c r="B285" s="38"/>
       <c r="C285"/>
       <c r="D285"/>
       <c r="E285"/>
@@ -7412,7 +8035,7 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286"/>
-      <c r="B286" s="39"/>
+      <c r="B286" s="38"/>
       <c r="C286"/>
       <c r="D286"/>
       <c r="E286"/>
@@ -7424,7 +8047,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287"/>
-      <c r="B287" s="39"/>
+      <c r="B287" s="38"/>
       <c r="C287"/>
       <c r="D287"/>
       <c r="E287"/>
@@ -7436,7 +8059,7 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288"/>
-      <c r="B288" s="39"/>
+      <c r="B288" s="38"/>
       <c r="C288"/>
       <c r="D288"/>
       <c r="E288"/>
@@ -7448,7 +8071,7 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289"/>
-      <c r="B289" s="39"/>
+      <c r="B289" s="38"/>
       <c r="C289"/>
       <c r="D289"/>
       <c r="E289"/>
@@ -7460,7 +8083,7 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290"/>
-      <c r="B290" s="39"/>
+      <c r="B290" s="38"/>
       <c r="C290"/>
       <c r="D290"/>
       <c r="E290"/>
@@ -7472,7 +8095,7 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291"/>
-      <c r="B291" s="39"/>
+      <c r="B291" s="38"/>
       <c r="C291"/>
       <c r="D291"/>
       <c r="E291"/>
@@ -7484,7 +8107,7 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292"/>
-      <c r="B292" s="39"/>
+      <c r="B292" s="38"/>
       <c r="C292"/>
       <c r="D292"/>
       <c r="E292"/>
@@ -7496,7 +8119,7 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293"/>
-      <c r="B293" s="39"/>
+      <c r="B293" s="38"/>
       <c r="C293"/>
       <c r="D293"/>
       <c r="E293"/>
@@ -7508,7 +8131,7 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294"/>
-      <c r="B294" s="39"/>
+      <c r="B294" s="38"/>
       <c r="C294"/>
       <c r="D294"/>
       <c r="E294"/>
@@ -7520,7 +8143,7 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295"/>
-      <c r="B295" s="39"/>
+      <c r="B295" s="38"/>
       <c r="C295"/>
       <c r="D295"/>
       <c r="E295"/>
@@ -7532,7 +8155,7 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296"/>
-      <c r="B296" s="39"/>
+      <c r="B296" s="38"/>
       <c r="C296"/>
       <c r="D296"/>
       <c r="E296"/>
@@ -7544,7 +8167,7 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297"/>
-      <c r="B297" s="39"/>
+      <c r="B297" s="38"/>
       <c r="C297"/>
       <c r="D297"/>
       <c r="E297"/>
@@ -7556,7 +8179,7 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298"/>
-      <c r="B298" s="39"/>
+      <c r="B298" s="38"/>
       <c r="C298"/>
       <c r="D298"/>
       <c r="E298"/>
@@ -7568,7 +8191,7 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299"/>
-      <c r="B299" s="39"/>
+      <c r="B299" s="38"/>
       <c r="C299"/>
       <c r="D299"/>
       <c r="E299"/>
@@ -7580,7 +8203,7 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300"/>
-      <c r="B300" s="39"/>
+      <c r="B300" s="38"/>
       <c r="C300"/>
       <c r="D300"/>
       <c r="E300"/>
@@ -7592,7 +8215,7 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301"/>
-      <c r="B301" s="39"/>
+      <c r="B301" s="38"/>
       <c r="C301"/>
       <c r="D301"/>
       <c r="E301"/>
@@ -7604,7 +8227,7 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302"/>
-      <c r="B302" s="39"/>
+      <c r="B302" s="38"/>
       <c r="C302"/>
       <c r="D302"/>
       <c r="E302"/>
@@ -7616,7 +8239,7 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303"/>
-      <c r="B303" s="39"/>
+      <c r="B303" s="38"/>
       <c r="C303"/>
       <c r="D303"/>
       <c r="E303"/>
@@ -7628,7 +8251,7 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304"/>
-      <c r="B304" s="39"/>
+      <c r="B304" s="38"/>
       <c r="C304"/>
       <c r="D304"/>
       <c r="E304"/>
@@ -7640,7 +8263,7 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305"/>
-      <c r="B305" s="39"/>
+      <c r="B305" s="38"/>
       <c r="C305"/>
       <c r="D305"/>
       <c r="E305"/>
@@ -7652,7 +8275,7 @@
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306"/>
-      <c r="B306" s="39"/>
+      <c r="B306" s="38"/>
       <c r="C306"/>
       <c r="D306"/>
       <c r="E306"/>
@@ -7664,7 +8287,7 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307"/>
-      <c r="B307" s="39"/>
+      <c r="B307" s="38"/>
       <c r="C307"/>
       <c r="D307"/>
       <c r="E307"/>
@@ -7676,7 +8299,7 @@
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308"/>
-      <c r="B308" s="39"/>
+      <c r="B308" s="38"/>
       <c r="C308"/>
       <c r="D308"/>
       <c r="E308"/>
@@ -7688,7 +8311,7 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309"/>
-      <c r="B309" s="39"/>
+      <c r="B309" s="38"/>
       <c r="C309"/>
       <c r="D309"/>
       <c r="E309"/>
@@ -7700,7 +8323,7 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310"/>
-      <c r="B310" s="39"/>
+      <c r="B310" s="38"/>
       <c r="C310"/>
       <c r="D310"/>
       <c r="E310"/>
@@ -7712,7 +8335,7 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311"/>
-      <c r="B311" s="39"/>
+      <c r="B311" s="38"/>
       <c r="C311"/>
       <c r="D311"/>
       <c r="E311"/>
@@ -7724,7 +8347,7 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312"/>
-      <c r="B312" s="39"/>
+      <c r="B312" s="38"/>
       <c r="C312"/>
       <c r="D312"/>
       <c r="E312"/>
@@ -7736,7 +8359,7 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313"/>
-      <c r="B313" s="39"/>
+      <c r="B313" s="38"/>
       <c r="C313"/>
       <c r="D313"/>
       <c r="E313"/>
@@ -7748,7 +8371,7 @@
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314"/>
-      <c r="B314" s="39"/>
+      <c r="B314" s="38"/>
       <c r="C314"/>
       <c r="D314"/>
       <c r="E314"/>
@@ -7760,7 +8383,7 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315"/>
-      <c r="B315" s="39"/>
+      <c r="B315" s="38"/>
       <c r="C315"/>
       <c r="D315"/>
       <c r="E315"/>
@@ -7772,7 +8395,7 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316"/>
-      <c r="B316" s="39"/>
+      <c r="B316" s="38"/>
       <c r="C316"/>
       <c r="D316"/>
       <c r="E316"/>
@@ -7784,7 +8407,7 @@
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317"/>
-      <c r="B317" s="39"/>
+      <c r="B317" s="38"/>
       <c r="C317"/>
       <c r="D317"/>
       <c r="E317"/>
@@ -7796,7 +8419,7 @@
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318"/>
-      <c r="B318" s="39"/>
+      <c r="B318" s="38"/>
       <c r="C318"/>
       <c r="D318"/>
       <c r="E318"/>
@@ -7808,7 +8431,7 @@
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319"/>
-      <c r="B319" s="39"/>
+      <c r="B319" s="38"/>
       <c r="C319"/>
       <c r="D319"/>
       <c r="E319"/>
@@ -7820,7 +8443,7 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320"/>
-      <c r="B320" s="39"/>
+      <c r="B320" s="38"/>
       <c r="C320"/>
       <c r="D320"/>
       <c r="E320"/>
@@ -7832,7 +8455,7 @@
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321"/>
-      <c r="B321" s="39"/>
+      <c r="B321" s="38"/>
       <c r="C321"/>
       <c r="D321"/>
       <c r="E321"/>
@@ -7844,7 +8467,7 @@
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322"/>
-      <c r="B322" s="39"/>
+      <c r="B322" s="38"/>
       <c r="C322"/>
       <c r="D322"/>
       <c r="E322"/>
@@ -7856,7 +8479,7 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323"/>
-      <c r="B323" s="39"/>
+      <c r="B323" s="38"/>
       <c r="C323"/>
       <c r="D323"/>
       <c r="E323"/>
@@ -7868,7 +8491,7 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324"/>
-      <c r="B324" s="39"/>
+      <c r="B324" s="38"/>
       <c r="C324"/>
       <c r="D324"/>
       <c r="E324"/>
@@ -7880,7 +8503,7 @@
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325"/>
-      <c r="B325" s="39"/>
+      <c r="B325" s="38"/>
       <c r="C325"/>
       <c r="D325"/>
       <c r="E325"/>
@@ -7892,7 +8515,7 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326"/>
-      <c r="B326" s="39"/>
+      <c r="B326" s="38"/>
       <c r="C326"/>
       <c r="D326"/>
       <c r="E326"/>
@@ -7904,7 +8527,7 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327"/>
-      <c r="B327" s="39"/>
+      <c r="B327" s="38"/>
       <c r="C327"/>
       <c r="D327"/>
       <c r="E327"/>
@@ -7916,7 +8539,7 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328"/>
-      <c r="B328" s="39"/>
+      <c r="B328" s="38"/>
       <c r="C328"/>
       <c r="D328"/>
       <c r="E328"/>
@@ -7928,7 +8551,7 @@
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329"/>
-      <c r="B329" s="39"/>
+      <c r="B329" s="38"/>
       <c r="C329"/>
       <c r="D329"/>
       <c r="E329"/>
@@ -7940,7 +8563,7 @@
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330"/>
-      <c r="B330" s="39"/>
+      <c r="B330" s="38"/>
       <c r="C330"/>
       <c r="D330"/>
       <c r="E330"/>
@@ -7952,7 +8575,7 @@
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331"/>
-      <c r="B331" s="39"/>
+      <c r="B331" s="38"/>
       <c r="C331"/>
       <c r="D331"/>
       <c r="E331"/>
@@ -7964,7 +8587,7 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332"/>
-      <c r="B332" s="39"/>
+      <c r="B332" s="38"/>
       <c r="C332"/>
       <c r="D332"/>
       <c r="E332"/>
@@ -7976,7 +8599,7 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333"/>
-      <c r="B333" s="39"/>
+      <c r="B333" s="38"/>
       <c r="C333"/>
       <c r="D333"/>
       <c r="E333"/>
@@ -7988,7 +8611,7 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334"/>
-      <c r="B334" s="39"/>
+      <c r="B334" s="38"/>
       <c r="C334"/>
       <c r="D334"/>
       <c r="E334"/>
@@ -8000,7 +8623,7 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335"/>
-      <c r="B335" s="39"/>
+      <c r="B335" s="38"/>
       <c r="C335"/>
       <c r="D335"/>
       <c r="E335"/>
@@ -8012,7 +8635,7 @@
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336"/>
-      <c r="B336" s="39"/>
+      <c r="B336" s="38"/>
       <c r="C336"/>
       <c r="D336"/>
       <c r="E336"/>
@@ -8024,7 +8647,7 @@
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337"/>
-      <c r="B337" s="39"/>
+      <c r="B337" s="38"/>
       <c r="C337"/>
       <c r="D337"/>
       <c r="E337"/>
@@ -8036,7 +8659,7 @@
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338"/>
-      <c r="B338" s="39"/>
+      <c r="B338" s="38"/>
       <c r="C338"/>
       <c r="D338"/>
       <c r="E338"/>
@@ -8048,7 +8671,7 @@
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339"/>
-      <c r="B339" s="39"/>
+      <c r="B339" s="38"/>
       <c r="C339"/>
       <c r="D339"/>
       <c r="E339"/>
@@ -8060,7 +8683,7 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340"/>
-      <c r="B340" s="39"/>
+      <c r="B340" s="38"/>
       <c r="C340"/>
       <c r="D340"/>
       <c r="E340"/>
@@ -8072,7 +8695,7 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341"/>
-      <c r="B341" s="39"/>
+      <c r="B341" s="38"/>
       <c r="C341"/>
       <c r="D341"/>
       <c r="E341"/>
@@ -8084,7 +8707,7 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342"/>
-      <c r="B342" s="39"/>
+      <c r="B342" s="38"/>
       <c r="C342"/>
       <c r="D342"/>
       <c r="E342"/>
@@ -8096,7 +8719,7 @@
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343"/>
-      <c r="B343" s="39"/>
+      <c r="B343" s="38"/>
       <c r="C343"/>
       <c r="D343"/>
       <c r="E343"/>
@@ -8108,7 +8731,7 @@
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344"/>
-      <c r="B344" s="39"/>
+      <c r="B344" s="38"/>
       <c r="C344"/>
       <c r="D344"/>
       <c r="E344"/>
@@ -8120,7 +8743,7 @@
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345"/>
-      <c r="B345" s="39"/>
+      <c r="B345" s="38"/>
       <c r="C345"/>
       <c r="D345"/>
       <c r="E345"/>
@@ -8132,7 +8755,7 @@
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346"/>
-      <c r="B346" s="39"/>
+      <c r="B346" s="38"/>
       <c r="C346"/>
       <c r="D346"/>
       <c r="E346"/>
@@ -8144,7 +8767,7 @@
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347"/>
-      <c r="B347" s="39"/>
+      <c r="B347" s="38"/>
       <c r="C347"/>
       <c r="D347"/>
       <c r="E347"/>
@@ -8156,7 +8779,7 @@
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348"/>
-      <c r="B348" s="39"/>
+      <c r="B348" s="38"/>
       <c r="C348"/>
       <c r="D348"/>
       <c r="E348"/>
@@ -8168,7 +8791,7 @@
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349"/>
-      <c r="B349" s="39"/>
+      <c r="B349" s="38"/>
       <c r="C349"/>
       <c r="D349"/>
       <c r="E349"/>
@@ -8180,7 +8803,7 @@
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350"/>
-      <c r="B350" s="39"/>
+      <c r="B350" s="38"/>
       <c r="C350"/>
       <c r="D350"/>
       <c r="E350"/>
@@ -8192,7 +8815,7 @@
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351"/>
-      <c r="B351" s="39"/>
+      <c r="B351" s="38"/>
       <c r="C351"/>
       <c r="D351"/>
       <c r="E351"/>
@@ -8204,7 +8827,7 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352"/>
-      <c r="B352" s="39"/>
+      <c r="B352" s="38"/>
       <c r="C352"/>
       <c r="D352"/>
       <c r="E352"/>
@@ -8216,7 +8839,7 @@
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353"/>
-      <c r="B353" s="39"/>
+      <c r="B353" s="38"/>
       <c r="C353"/>
       <c r="D353"/>
       <c r="E353"/>
@@ -8228,7 +8851,7 @@
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354"/>
-      <c r="B354" s="39"/>
+      <c r="B354" s="38"/>
       <c r="C354"/>
       <c r="D354"/>
       <c r="E354"/>
@@ -8240,7 +8863,7 @@
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355"/>
-      <c r="B355" s="39"/>
+      <c r="B355" s="38"/>
       <c r="C355"/>
       <c r="D355"/>
       <c r="E355"/>
@@ -8252,7 +8875,7 @@
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356"/>
-      <c r="B356" s="39"/>
+      <c r="B356" s="38"/>
       <c r="C356"/>
       <c r="D356"/>
       <c r="E356"/>
@@ -8264,7 +8887,7 @@
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357"/>
-      <c r="B357" s="39"/>
+      <c r="B357" s="38"/>
       <c r="C357"/>
       <c r="D357"/>
       <c r="E357"/>
@@ -8276,7 +8899,7 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358"/>
-      <c r="B358" s="39"/>
+      <c r="B358" s="38"/>
       <c r="C358"/>
       <c r="D358"/>
       <c r="E358"/>
@@ -8288,7 +8911,7 @@
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359"/>
-      <c r="B359" s="39"/>
+      <c r="B359" s="38"/>
       <c r="C359"/>
       <c r="D359"/>
       <c r="E359"/>
@@ -8300,7 +8923,7 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360"/>
-      <c r="B360" s="39"/>
+      <c r="B360" s="38"/>
       <c r="C360"/>
       <c r="D360"/>
       <c r="E360"/>
@@ -8312,7 +8935,7 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361"/>
-      <c r="B361" s="39"/>
+      <c r="B361" s="38"/>
       <c r="C361"/>
       <c r="D361"/>
       <c r="E361"/>
@@ -8324,7 +8947,7 @@
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362"/>
-      <c r="B362" s="39"/>
+      <c r="B362" s="38"/>
       <c r="C362"/>
       <c r="D362"/>
       <c r="E362"/>
@@ -8336,7 +8959,7 @@
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363"/>
-      <c r="B363" s="39"/>
+      <c r="B363" s="38"/>
       <c r="C363"/>
       <c r="D363"/>
       <c r="E363"/>
@@ -8348,7 +8971,7 @@
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364"/>
-      <c r="B364" s="39"/>
+      <c r="B364" s="38"/>
       <c r="C364"/>
       <c r="D364"/>
       <c r="E364"/>
@@ -8360,7 +8983,7 @@
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365"/>
-      <c r="B365" s="39"/>
+      <c r="B365" s="38"/>
       <c r="C365"/>
       <c r="D365"/>
       <c r="E365"/>
@@ -8372,7 +8995,7 @@
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366"/>
-      <c r="B366" s="39"/>
+      <c r="B366" s="38"/>
       <c r="C366"/>
       <c r="D366"/>
       <c r="E366"/>
@@ -8384,7 +9007,7 @@
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367"/>
-      <c r="B367" s="39"/>
+      <c r="B367" s="38"/>
       <c r="C367"/>
       <c r="D367"/>
       <c r="E367"/>
@@ -8396,7 +9019,7 @@
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368"/>
-      <c r="B368" s="39"/>
+      <c r="B368" s="38"/>
       <c r="C368"/>
       <c r="D368"/>
       <c r="E368"/>
@@ -8408,7 +9031,7 @@
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369"/>
-      <c r="B369" s="39"/>
+      <c r="B369" s="38"/>
       <c r="C369"/>
       <c r="D369"/>
       <c r="E369"/>
@@ -8420,7 +9043,7 @@
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370"/>
-      <c r="B370" s="39"/>
+      <c r="B370" s="38"/>
       <c r="C370"/>
       <c r="D370"/>
       <c r="E370"/>
@@ -8432,7 +9055,7 @@
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371"/>
-      <c r="B371" s="39"/>
+      <c r="B371" s="38"/>
       <c r="C371"/>
       <c r="D371"/>
       <c r="E371"/>
@@ -8444,7 +9067,7 @@
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372"/>
-      <c r="B372" s="39"/>
+      <c r="B372" s="38"/>
       <c r="C372"/>
       <c r="D372"/>
       <c r="E372"/>
@@ -8456,7 +9079,7 @@
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373"/>
-      <c r="B373" s="39"/>
+      <c r="B373" s="38"/>
       <c r="C373"/>
       <c r="D373"/>
       <c r="E373"/>
@@ -8468,7 +9091,7 @@
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374"/>
-      <c r="B374" s="39"/>
+      <c r="B374" s="38"/>
       <c r="C374"/>
       <c r="D374"/>
       <c r="E374"/>
@@ -8480,7 +9103,7 @@
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375"/>
-      <c r="B375" s="39"/>
+      <c r="B375" s="38"/>
       <c r="C375"/>
       <c r="D375"/>
       <c r="E375"/>
@@ -8492,7 +9115,7 @@
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376"/>
-      <c r="B376" s="39"/>
+      <c r="B376" s="38"/>
       <c r="C376"/>
       <c r="D376"/>
       <c r="E376"/>
@@ -8504,7 +9127,7 @@
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377"/>
-      <c r="B377" s="39"/>
+      <c r="B377" s="38"/>
       <c r="C377"/>
       <c r="D377"/>
       <c r="E377"/>
@@ -8516,7 +9139,7 @@
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A378"/>
-      <c r="B378" s="39"/>
+      <c r="B378" s="38"/>
       <c r="C378"/>
       <c r="D378"/>
       <c r="E378"/>
@@ -8528,7 +9151,7 @@
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A379"/>
-      <c r="B379" s="39"/>
+      <c r="B379" s="38"/>
       <c r="C379"/>
       <c r="D379"/>
       <c r="E379"/>
@@ -8540,7 +9163,7 @@
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A380"/>
-      <c r="B380" s="39"/>
+      <c r="B380" s="38"/>
       <c r="C380"/>
       <c r="D380"/>
       <c r="E380"/>
@@ -8552,7 +9175,7 @@
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A381"/>
-      <c r="B381" s="39"/>
+      <c r="B381" s="38"/>
       <c r="C381"/>
       <c r="D381"/>
       <c r="E381"/>
@@ -8564,7 +9187,7 @@
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A382"/>
-      <c r="B382" s="39"/>
+      <c r="B382" s="38"/>
       <c r="C382"/>
       <c r="D382"/>
       <c r="E382"/>
@@ -8576,7 +9199,7 @@
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383"/>
-      <c r="B383" s="39"/>
+      <c r="B383" s="38"/>
       <c r="C383"/>
       <c r="D383"/>
       <c r="E383"/>
@@ -8588,7 +9211,7 @@
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384"/>
-      <c r="B384" s="39"/>
+      <c r="B384" s="38"/>
       <c r="C384"/>
       <c r="D384"/>
       <c r="E384"/>
@@ -8600,7 +9223,7 @@
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A385"/>
-      <c r="B385" s="39"/>
+      <c r="B385" s="38"/>
       <c r="C385"/>
       <c r="D385"/>
       <c r="E385"/>
@@ -8612,7 +9235,7 @@
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A386"/>
-      <c r="B386" s="39"/>
+      <c r="B386" s="38"/>
       <c r="C386"/>
       <c r="D386"/>
       <c r="E386"/>
@@ -8624,7 +9247,7 @@
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387"/>
-      <c r="B387" s="39"/>
+      <c r="B387" s="38"/>
       <c r="C387"/>
       <c r="D387"/>
       <c r="E387"/>
@@ -8636,7 +9259,7 @@
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A388"/>
-      <c r="B388" s="39"/>
+      <c r="B388" s="38"/>
       <c r="C388"/>
       <c r="D388"/>
       <c r="E388"/>
@@ -8648,7 +9271,7 @@
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A389"/>
-      <c r="B389" s="39"/>
+      <c r="B389" s="38"/>
       <c r="C389"/>
       <c r="D389"/>
       <c r="E389"/>
@@ -8660,7 +9283,7 @@
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A390"/>
-      <c r="B390" s="39"/>
+      <c r="B390" s="38"/>
       <c r="C390"/>
       <c r="D390"/>
       <c r="E390"/>
@@ -8672,7 +9295,7 @@
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A391"/>
-      <c r="B391" s="39"/>
+      <c r="B391" s="38"/>
       <c r="C391"/>
       <c r="D391"/>
       <c r="E391"/>
@@ -8684,7 +9307,7 @@
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A392"/>
-      <c r="B392" s="39"/>
+      <c r="B392" s="38"/>
       <c r="C392"/>
       <c r="D392"/>
       <c r="E392"/>
@@ -8696,7 +9319,7 @@
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393"/>
-      <c r="B393" s="39"/>
+      <c r="B393" s="38"/>
       <c r="C393"/>
       <c r="D393"/>
       <c r="E393"/>
@@ -8708,7 +9331,7 @@
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A394"/>
-      <c r="B394" s="39"/>
+      <c r="B394" s="38"/>
       <c r="C394"/>
       <c r="D394"/>
       <c r="E394"/>
@@ -8720,7 +9343,7 @@
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A395"/>
-      <c r="B395" s="39"/>
+      <c r="B395" s="38"/>
       <c r="C395"/>
       <c r="D395"/>
       <c r="E395"/>
@@ -8732,7 +9355,7 @@
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396"/>
-      <c r="B396" s="39"/>
+      <c r="B396" s="38"/>
       <c r="C396"/>
       <c r="D396"/>
       <c r="E396"/>
@@ -8744,7 +9367,7 @@
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A397"/>
-      <c r="B397" s="39"/>
+      <c r="B397" s="38"/>
       <c r="C397"/>
       <c r="D397"/>
       <c r="E397"/>
@@ -8756,7 +9379,7 @@
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398"/>
-      <c r="B398" s="39"/>
+      <c r="B398" s="38"/>
       <c r="C398"/>
       <c r="D398"/>
       <c r="E398"/>
@@ -8768,7 +9391,7 @@
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399"/>
-      <c r="B399" s="39"/>
+      <c r="B399" s="38"/>
       <c r="C399"/>
       <c r="D399"/>
       <c r="E399"/>
@@ -8780,7 +9403,7 @@
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A400"/>
-      <c r="B400" s="39"/>
+      <c r="B400" s="38"/>
       <c r="C400"/>
       <c r="D400"/>
       <c r="E400"/>
@@ -8792,7 +9415,7 @@
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401"/>
-      <c r="B401" s="39"/>
+      <c r="B401" s="38"/>
       <c r="C401"/>
       <c r="D401"/>
       <c r="E401"/>
@@ -8804,7 +9427,7 @@
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A402"/>
-      <c r="B402" s="39"/>
+      <c r="B402" s="38"/>
       <c r="C402"/>
       <c r="D402"/>
       <c r="E402"/>
@@ -8816,7 +9439,7 @@
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A403"/>
-      <c r="B403" s="39"/>
+      <c r="B403" s="38"/>
       <c r="C403"/>
       <c r="D403"/>
       <c r="E403"/>
@@ -8828,7 +9451,7 @@
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A404"/>
-      <c r="B404" s="39"/>
+      <c r="B404" s="38"/>
       <c r="C404"/>
       <c r="D404"/>
       <c r="E404"/>
@@ -8840,7 +9463,7 @@
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A405"/>
-      <c r="B405" s="39"/>
+      <c r="B405" s="38"/>
       <c r="C405"/>
       <c r="D405"/>
       <c r="E405"/>
@@ -8852,7 +9475,7 @@
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406"/>
-      <c r="B406" s="39"/>
+      <c r="B406" s="38"/>
       <c r="C406"/>
       <c r="D406"/>
       <c r="E406"/>
@@ -8864,7 +9487,7 @@
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A407"/>
-      <c r="B407" s="39"/>
+      <c r="B407" s="38"/>
       <c r="C407"/>
       <c r="D407"/>
       <c r="E407"/>
@@ -8876,7 +9499,7 @@
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A408"/>
-      <c r="B408" s="39"/>
+      <c r="B408" s="38"/>
       <c r="C408"/>
       <c r="D408"/>
       <c r="E408"/>
@@ -8888,7 +9511,7 @@
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A409"/>
-      <c r="B409" s="39"/>
+      <c r="B409" s="38"/>
       <c r="C409"/>
       <c r="D409"/>
       <c r="E409"/>
@@ -8900,7 +9523,7 @@
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A410"/>
-      <c r="B410" s="39"/>
+      <c r="B410" s="38"/>
       <c r="C410"/>
       <c r="D410"/>
       <c r="E410"/>
@@ -8912,7 +9535,7 @@
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A411"/>
-      <c r="B411" s="39"/>
+      <c r="B411" s="38"/>
       <c r="C411"/>
       <c r="D411"/>
       <c r="E411"/>
@@ -8924,7 +9547,7 @@
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A412"/>
-      <c r="B412" s="39"/>
+      <c r="B412" s="38"/>
       <c r="C412"/>
       <c r="D412"/>
       <c r="E412"/>
@@ -8936,7 +9559,7 @@
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A413"/>
-      <c r="B413" s="39"/>
+      <c r="B413" s="38"/>
       <c r="C413"/>
       <c r="D413"/>
       <c r="E413"/>
@@ -8948,7 +9571,7 @@
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A414"/>
-      <c r="B414" s="39"/>
+      <c r="B414" s="38"/>
       <c r="C414"/>
       <c r="D414"/>
       <c r="E414"/>
@@ -8960,7 +9583,7 @@
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A415"/>
-      <c r="B415" s="39"/>
+      <c r="B415" s="38"/>
       <c r="C415"/>
       <c r="D415"/>
       <c r="E415"/>
@@ -8972,7 +9595,7 @@
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A416"/>
-      <c r="B416" s="39"/>
+      <c r="B416" s="38"/>
       <c r="C416"/>
       <c r="D416"/>
       <c r="E416"/>
@@ -8984,7 +9607,7 @@
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A417"/>
-      <c r="B417" s="39"/>
+      <c r="B417" s="38"/>
       <c r="C417"/>
       <c r="D417"/>
       <c r="E417"/>
@@ -8996,7 +9619,7 @@
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A418"/>
-      <c r="B418" s="39"/>
+      <c r="B418" s="38"/>
       <c r="C418"/>
       <c r="D418"/>
       <c r="E418"/>
@@ -9008,7 +9631,7 @@
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A419"/>
-      <c r="B419" s="39"/>
+      <c r="B419" s="38"/>
       <c r="C419"/>
       <c r="D419"/>
       <c r="E419"/>
@@ -9020,7 +9643,7 @@
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A420"/>
-      <c r="B420" s="39"/>
+      <c r="B420" s="38"/>
       <c r="C420"/>
       <c r="D420"/>
       <c r="E420"/>
@@ -9032,7 +9655,7 @@
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A421"/>
-      <c r="B421" s="39"/>
+      <c r="B421" s="38"/>
       <c r="C421"/>
       <c r="D421"/>
       <c r="E421"/>
@@ -9044,7 +9667,7 @@
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A422"/>
-      <c r="B422" s="39"/>
+      <c r="B422" s="38"/>
       <c r="C422"/>
       <c r="D422"/>
       <c r="E422"/>
@@ -9056,7 +9679,7 @@
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A423"/>
-      <c r="B423" s="39"/>
+      <c r="B423" s="38"/>
       <c r="C423"/>
       <c r="D423"/>
       <c r="E423"/>
@@ -9068,7 +9691,7 @@
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A424"/>
-      <c r="B424" s="39"/>
+      <c r="B424" s="38"/>
       <c r="C424"/>
       <c r="D424"/>
       <c r="E424"/>
@@ -9080,7 +9703,7 @@
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A425"/>
-      <c r="B425" s="39"/>
+      <c r="B425" s="38"/>
       <c r="C425"/>
       <c r="D425"/>
       <c r="E425"/>
@@ -9092,7 +9715,7 @@
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A426"/>
-      <c r="B426" s="39"/>
+      <c r="B426" s="38"/>
       <c r="C426"/>
       <c r="D426"/>
       <c r="E426"/>
@@ -9104,7 +9727,7 @@
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A427"/>
-      <c r="B427" s="39"/>
+      <c r="B427" s="38"/>
       <c r="C427"/>
       <c r="D427"/>
       <c r="E427"/>
@@ -9116,7 +9739,7 @@
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A428"/>
-      <c r="B428" s="39"/>
+      <c r="B428" s="38"/>
       <c r="C428"/>
       <c r="D428"/>
       <c r="E428"/>
@@ -9128,7 +9751,7 @@
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A429"/>
-      <c r="B429" s="39"/>
+      <c r="B429" s="38"/>
       <c r="C429"/>
       <c r="D429"/>
       <c r="E429"/>
@@ -9140,7 +9763,7 @@
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A430"/>
-      <c r="B430" s="39"/>
+      <c r="B430" s="38"/>
       <c r="C430"/>
       <c r="D430"/>
       <c r="E430"/>
@@ -9152,7 +9775,7 @@
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A431"/>
-      <c r="B431" s="39"/>
+      <c r="B431" s="38"/>
       <c r="C431"/>
       <c r="D431"/>
       <c r="E431"/>
@@ -9164,7 +9787,7 @@
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A432"/>
-      <c r="B432" s="39"/>
+      <c r="B432" s="38"/>
       <c r="C432"/>
       <c r="D432"/>
       <c r="E432"/>
@@ -9176,7 +9799,7 @@
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A433"/>
-      <c r="B433" s="39"/>
+      <c r="B433" s="38"/>
       <c r="C433"/>
       <c r="D433"/>
       <c r="E433"/>
@@ -9188,7 +9811,7 @@
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A434"/>
-      <c r="B434" s="39"/>
+      <c r="B434" s="38"/>
       <c r="C434"/>
       <c r="D434"/>
       <c r="E434"/>
@@ -9200,7 +9823,7 @@
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A435"/>
-      <c r="B435" s="39"/>
+      <c r="B435" s="38"/>
       <c r="C435"/>
       <c r="D435"/>
       <c r="E435"/>
@@ -9212,7 +9835,7 @@
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A436"/>
-      <c r="B436" s="39"/>
+      <c r="B436" s="38"/>
       <c r="C436"/>
       <c r="D436"/>
       <c r="E436"/>
@@ -9224,7 +9847,7 @@
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A437"/>
-      <c r="B437" s="39"/>
+      <c r="B437" s="38"/>
       <c r="C437"/>
       <c r="D437"/>
       <c r="E437"/>
@@ -9236,7 +9859,7 @@
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A438"/>
-      <c r="B438" s="39"/>
+      <c r="B438" s="38"/>
       <c r="C438"/>
       <c r="D438"/>
       <c r="E438"/>
@@ -9248,7 +9871,7 @@
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A439"/>
-      <c r="B439" s="39"/>
+      <c r="B439" s="38"/>
       <c r="C439"/>
       <c r="D439"/>
       <c r="E439"/>
@@ -9260,7 +9883,7 @@
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A440"/>
-      <c r="B440" s="39"/>
+      <c r="B440" s="38"/>
       <c r="C440"/>
       <c r="D440"/>
       <c r="E440"/>
@@ -9272,7 +9895,7 @@
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A441"/>
-      <c r="B441" s="39"/>
+      <c r="B441" s="38"/>
       <c r="C441"/>
       <c r="D441"/>
       <c r="E441"/>
@@ -9284,7 +9907,7 @@
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A442"/>
-      <c r="B442" s="39"/>
+      <c r="B442" s="38"/>
       <c r="C442"/>
       <c r="D442"/>
       <c r="E442"/>
@@ -9296,7 +9919,7 @@
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A443"/>
-      <c r="B443" s="39"/>
+      <c r="B443" s="38"/>
       <c r="C443"/>
       <c r="D443"/>
       <c r="E443"/>
@@ -9308,7 +9931,7 @@
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A444"/>
-      <c r="B444" s="39"/>
+      <c r="B444" s="38"/>
       <c r="C444"/>
       <c r="D444"/>
       <c r="E444"/>
@@ -9320,7 +9943,7 @@
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A445"/>
-      <c r="B445" s="39"/>
+      <c r="B445" s="38"/>
       <c r="C445"/>
       <c r="D445"/>
       <c r="E445"/>
@@ -9332,7 +9955,7 @@
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A446"/>
-      <c r="B446" s="39"/>
+      <c r="B446" s="38"/>
       <c r="C446"/>
       <c r="D446"/>
       <c r="E446"/>
@@ -9344,7 +9967,7 @@
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A447"/>
-      <c r="B447" s="39"/>
+      <c r="B447" s="38"/>
       <c r="C447"/>
       <c r="D447"/>
       <c r="E447"/>
@@ -9356,7 +9979,7 @@
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A448"/>
-      <c r="B448" s="39"/>
+      <c r="B448" s="38"/>
       <c r="C448"/>
       <c r="D448"/>
       <c r="E448"/>
@@ -9368,7 +9991,7 @@
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A449"/>
-      <c r="B449" s="39"/>
+      <c r="B449" s="38"/>
       <c r="C449"/>
       <c r="D449"/>
       <c r="E449"/>

--- a/Homework & score/课外作业成绩.xlsx
+++ b/Homework & score/课外作业成绩.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="558">
   <si>
     <t>77</t>
   </si>
@@ -1394,18 +1394,246 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高家齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答非所问！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>93</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>93</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补交word发我邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>90</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1414,39 +1642,201 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>98</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐润生</t>
+  </si>
+  <si>
+    <t>武文浩</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>80</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>91</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>84</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>84</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
+    <t>张智强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>18020022040</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>18020022038</t>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糊弄我？！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1454,35 +1844,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>96</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>96</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高家齐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80</t>
+    <t>78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补交</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1490,401 +1864,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>87</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>87</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>91</t>
+    <t>88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答非所问！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>91</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>91</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>91</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>91</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>98</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>98</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>87</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>87</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>87</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>98</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>98</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补交word发我邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>91</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>91</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>96</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>96</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>98</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐润生</t>
-  </si>
-  <si>
-    <t>武文浩</t>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张智强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>18020022040</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>18020022038</t>
-  </si>
-  <si>
-    <t>75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>糊弄我？！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未见附件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2701,10 +2689,10 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E117" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J129" sqref="J129"/>
+      <selection pane="bottomRight" activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2785,7 +2773,7 @@
         <v>405</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
@@ -2813,7 +2801,7 @@
         <v>406</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -2841,7 +2829,7 @@
         <v>407</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -2866,14 +2854,14 @@
         <v>371</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2896,10 +2884,10 @@
         <v>371</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -2921,13 +2909,13 @@
         <v>85</v>
       </c>
       <c r="F8" s="42" t="s">
+        <v>544</v>
+      </c>
+      <c r="G8" s="42" t="s">
         <v>546</v>
       </c>
-      <c r="G8" s="42" t="s">
-        <v>548</v>
-      </c>
       <c r="H8" s="42" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -2955,7 +2943,7 @@
         <v>426</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -2983,7 +2971,7 @@
         <v>426</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -3011,7 +2999,7 @@
         <v>427</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -3039,7 +3027,7 @@
         <v>424</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -3067,7 +3055,7 @@
         <v>425</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -3095,7 +3083,7 @@
         <v>425</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -3120,14 +3108,14 @@
         <v>367</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H15" s="41" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3153,7 +3141,7 @@
         <v>367</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -3178,10 +3166,10 @@
         <v>367</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H17" s="41" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -3206,10 +3194,10 @@
         <v>401</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -3237,7 +3225,7 @@
         <v>403</v>
       </c>
       <c r="H19" s="42" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -3262,10 +3250,10 @@
         <v>394</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H20" s="42" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -3293,7 +3281,7 @@
         <v>419</v>
       </c>
       <c r="H21" s="41" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -3321,7 +3309,7 @@
         <v>425</v>
       </c>
       <c r="H22" s="41" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -3346,10 +3334,10 @@
         <v>383</v>
       </c>
       <c r="G23" s="41" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H23" s="41" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -3374,10 +3362,10 @@
         <v>374</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H24" s="42" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -3402,10 +3390,10 @@
         <v>398</v>
       </c>
       <c r="G25" s="42" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H25" s="42" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -3430,10 +3418,10 @@
         <v>376</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -3545,7 +3533,7 @@
         <v>416</v>
       </c>
       <c r="H30" s="42" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
@@ -3573,7 +3561,7 @@
         <v>417</v>
       </c>
       <c r="H31" s="42" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
@@ -3601,7 +3589,7 @@
         <v>416</v>
       </c>
       <c r="H32" s="42" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
@@ -3626,10 +3614,10 @@
         <v>398</v>
       </c>
       <c r="G33" s="41" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H33" s="41" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
@@ -3654,10 +3642,10 @@
         <v>374</v>
       </c>
       <c r="G34" s="41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H34" s="41" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -3676,16 +3664,16 @@
         <v>102</v>
       </c>
       <c r="E35" s="41" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F35" s="41" t="s">
         <v>374</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H35" s="41" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
@@ -3713,7 +3701,7 @@
         <v>408</v>
       </c>
       <c r="H36" s="42" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
@@ -3741,7 +3729,7 @@
         <v>408</v>
       </c>
       <c r="H37" s="42" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
@@ -3769,7 +3757,7 @@
         <v>408</v>
       </c>
       <c r="H38" s="42" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
@@ -3797,7 +3785,7 @@
         <v>411</v>
       </c>
       <c r="H39" s="41" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
@@ -3822,10 +3810,10 @@
         <v>75</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H40" s="41" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
@@ -3850,10 +3838,10 @@
         <v>75</v>
       </c>
       <c r="G41" s="41" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H41" s="41" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
@@ -3881,7 +3869,7 @@
         <v>403</v>
       </c>
       <c r="H42" s="42" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
@@ -3906,10 +3894,10 @@
         <v>388</v>
       </c>
       <c r="G43" s="42" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H43" s="42" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
@@ -3934,10 +3922,10 @@
         <v>389</v>
       </c>
       <c r="G44" s="42" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H44" s="42" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
@@ -3965,7 +3953,7 @@
         <v>412</v>
       </c>
       <c r="H45" s="41" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -3993,7 +3981,7 @@
         <v>412</v>
       </c>
       <c r="H46" s="41" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -4018,10 +4006,10 @@
         <v>75</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H47" s="41" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
@@ -4043,17 +4031,17 @@
         <v>82</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G48" s="42" t="s">
         <v>420</v>
       </c>
       <c r="H48" s="43" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I48" s="12"/>
       <c r="J48" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4079,11 +4067,11 @@
         <v>420</v>
       </c>
       <c r="H49" s="43" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I49" s="12"/>
       <c r="J49" s="12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4109,11 +4097,11 @@
         <v>420</v>
       </c>
       <c r="H50" s="43" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I50" s="12"/>
       <c r="J50" s="12" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4139,7 +4127,7 @@
         <v>405</v>
       </c>
       <c r="H51" s="41" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
@@ -4167,7 +4155,7 @@
         <v>407</v>
       </c>
       <c r="H52" s="41" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
@@ -4195,7 +4183,7 @@
         <v>407</v>
       </c>
       <c r="H53" s="41" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
@@ -4220,10 +4208,10 @@
         <v>395</v>
       </c>
       <c r="G54" s="42" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H54" s="42" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I54" s="12"/>
       <c r="J54" s="12"/>
@@ -4248,10 +4236,10 @@
         <v>395</v>
       </c>
       <c r="G55" s="42" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H55" s="42" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
@@ -4276,10 +4264,10 @@
         <v>392</v>
       </c>
       <c r="G56" s="42" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H56" s="42" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
@@ -4304,10 +4292,10 @@
         <v>368</v>
       </c>
       <c r="G57" s="41" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H57" s="41" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
@@ -4335,7 +4323,7 @@
         <v>404</v>
       </c>
       <c r="H58" s="41" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
@@ -4360,10 +4348,10 @@
         <v>368</v>
       </c>
       <c r="G59" s="41" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H59" s="41" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
@@ -4391,7 +4379,7 @@
         <v>419</v>
       </c>
       <c r="H60" s="42" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
@@ -4419,7 +4407,7 @@
         <v>425</v>
       </c>
       <c r="H61" s="42" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
@@ -4435,7 +4423,7 @@
         <v>181</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E62" s="11">
         <v>90</v>
@@ -4447,7 +4435,7 @@
         <v>419</v>
       </c>
       <c r="H62" s="42" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
@@ -4475,7 +4463,7 @@
         <v>422</v>
       </c>
       <c r="H63" s="41" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
@@ -4503,7 +4491,7 @@
         <v>422</v>
       </c>
       <c r="H64" s="41" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
@@ -4531,7 +4519,7 @@
         <v>430</v>
       </c>
       <c r="H65" s="41" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
@@ -4556,10 +4544,10 @@
         <v>385</v>
       </c>
       <c r="G66" s="42" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H66" s="42" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
@@ -4584,10 +4572,10 @@
         <v>386</v>
       </c>
       <c r="G67" s="42" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H67" s="42" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
@@ -4615,7 +4603,7 @@
         <v>410</v>
       </c>
       <c r="H68" s="42" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
@@ -4699,7 +4687,7 @@
         <v>421</v>
       </c>
       <c r="H71" s="41" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
@@ -4727,7 +4715,7 @@
         <v>423</v>
       </c>
       <c r="H72" s="42" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I72" s="12"/>
       <c r="J72" s="12"/>
@@ -4755,7 +4743,7 @@
         <v>409</v>
       </c>
       <c r="H73" s="42" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I73" s="12"/>
       <c r="J73" s="12"/>
@@ -4783,7 +4771,7 @@
         <v>409</v>
       </c>
       <c r="H74" s="42" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I74" s="12"/>
       <c r="J74" s="12"/>
@@ -4805,17 +4793,17 @@
         <v>80</v>
       </c>
       <c r="F75" s="43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G75" s="41" t="s">
         <v>408</v>
       </c>
       <c r="H75" s="43" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4838,10 +4826,10 @@
         <v>367</v>
       </c>
       <c r="G76" s="41" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H76" s="43" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
@@ -4863,10 +4851,10 @@
         <v>80</v>
       </c>
       <c r="F77" s="43" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G77" s="41" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H77" s="43" t="s">
         <v>367</v>
@@ -4901,7 +4889,7 @@
       </c>
       <c r="I78" s="12"/>
       <c r="J78" s="12" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4924,7 +4912,7 @@
         <v>368</v>
       </c>
       <c r="G79" s="42" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H79" s="42" t="s">
         <v>381</v>
@@ -4955,7 +4943,7 @@
         <v>371</v>
       </c>
       <c r="H80" s="42" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I80" s="12"/>
       <c r="J80" s="12"/>
@@ -4983,7 +4971,7 @@
         <v>410</v>
       </c>
       <c r="H81" s="41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
@@ -5011,7 +4999,7 @@
         <v>410</v>
       </c>
       <c r="H82" s="41" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
@@ -5039,7 +5027,7 @@
         <v>410</v>
       </c>
       <c r="H83" s="41" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
@@ -5067,7 +5055,7 @@
         <v>419</v>
       </c>
       <c r="H84" s="42" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
@@ -5095,7 +5083,7 @@
         <v>425</v>
       </c>
       <c r="H85" s="42" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I85" s="12"/>
       <c r="J85" s="12"/>
@@ -5123,7 +5111,7 @@
         <v>424</v>
       </c>
       <c r="H86" s="42" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
@@ -5148,10 +5136,10 @@
         <v>376</v>
       </c>
       <c r="G87" s="41" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H87" s="41" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
@@ -5176,10 +5164,10 @@
         <v>376</v>
       </c>
       <c r="G88" s="41" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H88" s="41" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
@@ -5204,10 +5192,10 @@
         <v>376</v>
       </c>
       <c r="G89" s="41" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H89" s="41" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
@@ -5232,10 +5220,10 @@
         <v>388</v>
       </c>
       <c r="G90" s="42" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H90" s="42" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
@@ -5257,13 +5245,13 @@
         <v>85</v>
       </c>
       <c r="F91" s="42" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G91" s="42" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H91" s="42" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I91" s="12"/>
       <c r="J91" s="12"/>
@@ -5285,13 +5273,13 @@
         <v>85</v>
       </c>
       <c r="F92" s="42" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G92" s="42" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H92" s="42" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I92" s="12"/>
       <c r="J92" s="12"/>
@@ -5319,7 +5307,7 @@
         <v>404</v>
       </c>
       <c r="H93" s="41" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
@@ -5347,7 +5335,7 @@
         <v>413</v>
       </c>
       <c r="H94" s="41" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
@@ -5375,7 +5363,7 @@
         <v>429</v>
       </c>
       <c r="H95" s="42" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I95" s="12"/>
       <c r="J95" s="12"/>
@@ -5403,7 +5391,7 @@
         <v>415</v>
       </c>
       <c r="H96" s="42" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I96" s="12"/>
       <c r="J96" s="12"/>
@@ -5431,7 +5419,7 @@
         <v>403</v>
       </c>
       <c r="H97" s="41" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
@@ -5459,7 +5447,7 @@
         <v>404</v>
       </c>
       <c r="H98" s="41" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
@@ -5484,10 +5472,10 @@
         <v>392</v>
       </c>
       <c r="G99" s="42" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H99" s="42" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I99" s="12"/>
       <c r="J99" s="12"/>
@@ -5512,10 +5500,10 @@
         <v>392</v>
       </c>
       <c r="G100" s="42" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H100" s="42" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I100" s="12"/>
       <c r="J100" s="12"/>
@@ -5543,7 +5531,7 @@
         <v>424</v>
       </c>
       <c r="H101" s="41" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
@@ -5571,7 +5559,7 @@
         <v>418</v>
       </c>
       <c r="H102" s="41" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
@@ -5599,7 +5587,7 @@
         <v>411</v>
       </c>
       <c r="H103" s="42" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I103" s="12"/>
       <c r="J103" s="12"/>
@@ -5627,7 +5615,7 @@
         <v>411</v>
       </c>
       <c r="H104" s="42" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I104" s="12"/>
       <c r="J104" s="12"/>
@@ -5652,14 +5640,14 @@
         <v>387</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H105" s="7" t="s">
         <v>367</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5707,17 +5695,17 @@
         <v>83</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I107" s="12"/>
       <c r="J107" s="12" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5737,13 +5725,13 @@
         <v>83</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I108" s="12"/>
       <c r="J108" s="12"/>
@@ -5771,7 +5759,7 @@
         <v>413</v>
       </c>
       <c r="H109" s="41" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
@@ -5796,10 +5784,10 @@
         <v>395</v>
       </c>
       <c r="G110" s="41" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H110" s="41" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
@@ -5827,7 +5815,7 @@
         <v>425</v>
       </c>
       <c r="H111" s="42" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I111" s="12"/>
       <c r="J111" s="12"/>
@@ -5855,7 +5843,7 @@
         <v>419</v>
       </c>
       <c r="H112" s="42" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I112" s="12"/>
       <c r="J112" s="12"/>
@@ -5880,10 +5868,10 @@
         <v>377</v>
       </c>
       <c r="G113" s="41" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H113" s="41" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
@@ -5908,10 +5896,10 @@
         <v>377</v>
       </c>
       <c r="G114" s="41" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H114" s="41" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
@@ -5939,7 +5927,7 @@
         <v>421</v>
       </c>
       <c r="H115" s="42" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I115" s="12"/>
       <c r="J115" s="12"/>
@@ -5961,13 +5949,13 @@
         <v>88</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G116" s="42" t="s">
         <v>428</v>
       </c>
       <c r="H116" s="42" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I116" s="12"/>
       <c r="J116" s="12"/>
@@ -5989,13 +5977,13 @@
         <v>88</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G117" s="42" t="s">
         <v>421</v>
       </c>
       <c r="H117" s="42" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I117" s="12"/>
       <c r="J117" s="12"/>
@@ -6023,7 +6011,7 @@
         <v>370</v>
       </c>
       <c r="H118" s="41" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
@@ -6051,7 +6039,7 @@
         <v>370</v>
       </c>
       <c r="H119" s="41" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
@@ -6076,14 +6064,14 @@
         <v>382</v>
       </c>
       <c r="G120" s="43" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H120" s="43" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I120" s="12"/>
       <c r="J120" s="12" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6103,17 +6091,17 @@
         <v>78</v>
       </c>
       <c r="F121" s="43" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G121" s="43" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H121" s="43" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I121" s="12"/>
       <c r="J121" s="12" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6139,11 +6127,11 @@
         <v>362</v>
       </c>
       <c r="H122" s="44" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6157,7 +6145,7 @@
         <v>346</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E123" s="7">
         <v>78</v>
@@ -6169,11 +6157,11 @@
         <v>362</v>
       </c>
       <c r="H123" s="44" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6181,19 +6169,19 @@
         <v>59</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>532</v>
-      </c>
-      <c r="E124" s="43" t="s">
-        <v>431</v>
+        <v>531</v>
+      </c>
+      <c r="E124" s="42" t="s">
+        <v>362</v>
       </c>
       <c r="F124" s="42" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G124" s="42" t="s">
         <v>362</v>
@@ -6203,7 +6191,7 @@
       </c>
       <c r="I124" s="25"/>
       <c r="J124" s="12" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6211,30 +6199,28 @@
         <v>59</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="E125" s="43" t="s">
-        <v>536</v>
+        <v>532</v>
+      </c>
+      <c r="E125" s="42" t="s">
+        <v>362</v>
       </c>
       <c r="F125" s="42" t="s">
         <v>362</v>
       </c>
       <c r="G125" s="42" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H125" s="42" t="s">
         <v>362</v>
       </c>
       <c r="I125" s="25"/>
-      <c r="J125" s="12" t="s">
-        <v>491</v>
-      </c>
+      <c r="J125" s="12"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126"/>
